--- a/results/seminare_bez_seminaricich.xlsx
+++ b/results/seminare_bez_seminaricich.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="189">
   <si>
     <t>zkratka</t>
   </si>
@@ -28,10 +28,22 @@
     <t>rok</t>
   </si>
   <si>
+    <t>datum</t>
+  </si>
+  <si>
+    <t>hodinaSkutOd</t>
+  </si>
+  <si>
+    <t>hodinaSkutDo</t>
+  </si>
+  <si>
+    <t>katedra</t>
+  </si>
+  <si>
     <t>nazev</t>
   </si>
   <si>
-    <t>zkratka_right</t>
+    <t>seminarici</t>
   </si>
   <si>
     <t>seminariciUcitIdno</t>
@@ -40,40 +52,535 @@
     <t>jmena</t>
   </si>
   <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>DIPL2</t>
+  </si>
+  <si>
+    <t>DPS2</t>
+  </si>
+  <si>
+    <t>KAFJ</t>
+  </si>
+  <si>
+    <t>KAPR1</t>
+  </si>
+  <si>
+    <t>KAPR2</t>
+  </si>
+  <si>
+    <t>KCSY</t>
+  </si>
+  <si>
+    <t>KDI2</t>
+  </si>
+  <si>
+    <t>KDIB</t>
+  </si>
+  <si>
+    <t>KDINB</t>
+  </si>
+  <si>
+    <t>KDIP1</t>
+  </si>
+  <si>
+    <t>KDIS</t>
+  </si>
+  <si>
+    <t>KDPS1</t>
+  </si>
+  <si>
+    <t>KITP</t>
+  </si>
+  <si>
+    <t>KLTP</t>
+  </si>
+  <si>
+    <t>KMSW</t>
+  </si>
+  <si>
+    <t>KOAN</t>
+  </si>
+  <si>
+    <t>KODT</t>
+  </si>
+  <si>
+    <t>KOONV</t>
+  </si>
+  <si>
+    <t>KOPR</t>
+  </si>
+  <si>
+    <t>KOPS</t>
+  </si>
+  <si>
+    <t>KOTT</t>
+  </si>
+  <si>
+    <t>KPAR</t>
+  </si>
+  <si>
+    <t>KPNUM</t>
+  </si>
+  <si>
+    <t>KPRI</t>
+  </si>
+  <si>
+    <t>KPS2</t>
+  </si>
+  <si>
+    <t>KPYR</t>
+  </si>
+  <si>
+    <t>KRDBS</t>
+  </si>
+  <si>
+    <t>KROB</t>
+  </si>
+  <si>
+    <t>KSBP1</t>
+  </si>
+  <si>
+    <t>KSBP2</t>
+  </si>
+  <si>
+    <t>KSOC</t>
+  </si>
+  <si>
+    <t>KSP2</t>
+  </si>
+  <si>
+    <t>KSYS</t>
+  </si>
+  <si>
+    <t>KTZI2</t>
+  </si>
+  <si>
+    <t>KURDB</t>
+  </si>
+  <si>
+    <t>KZEK</t>
+  </si>
+  <si>
+    <t>KZEL</t>
+  </si>
+  <si>
+    <t>KZKB</t>
+  </si>
+  <si>
+    <t>LTP</t>
+  </si>
+  <si>
+    <t>MSW</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>OSIT</t>
+  </si>
+  <si>
+    <t>PAP</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>PRAX</t>
+  </si>
+  <si>
+    <t>PREP</t>
+  </si>
+  <si>
+    <t>PS2</t>
+  </si>
+  <si>
+    <t>ROB</t>
+  </si>
+  <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
     <t>SP3</t>
   </si>
   <si>
-    <t>PAP</t>
-  </si>
-  <si>
-    <t>0204</t>
-  </si>
-  <si>
-    <t>KPYR</t>
-  </si>
-  <si>
-    <t>KPS2</t>
-  </si>
-  <si>
-    <t>KPRI</t>
-  </si>
-  <si>
-    <t>LTP</t>
-  </si>
-  <si>
-    <t>KLTP</t>
-  </si>
-  <si>
-    <t>KSYS</t>
-  </si>
-  <si>
-    <t>SP1</t>
-  </si>
-  <si>
-    <t>PS2</t>
-  </si>
-  <si>
     <t>Se</t>
+  </si>
+  <si>
+    <t>24.4.2024</t>
+  </si>
+  <si>
+    <t>15.5.2024</t>
+  </si>
+  <si>
+    <t>17.4.2024</t>
+  </si>
+  <si>
+    <t>23.4.2024</t>
+  </si>
+  <si>
+    <t>30.4.2024</t>
+  </si>
+  <si>
+    <t>7.5.2024</t>
+  </si>
+  <si>
+    <t>16.4.2024</t>
+  </si>
+  <si>
+    <t>14.5.2024</t>
+  </si>
+  <si>
+    <t>10.5.2024</t>
+  </si>
+  <si>
+    <t>11.5.2024</t>
+  </si>
+  <si>
+    <t>18.5.2024</t>
+  </si>
+  <si>
+    <t>13.4.2024</t>
+  </si>
+  <si>
+    <t>12.5.2024</t>
+  </si>
+  <si>
+    <t>21.4.2024</t>
+  </si>
+  <si>
+    <t>12.4.2024</t>
+  </si>
+  <si>
+    <t>17.5.2024</t>
+  </si>
+  <si>
+    <t>19.4.2024</t>
+  </si>
+  <si>
+    <t>15.4.2024</t>
+  </si>
+  <si>
+    <t>6.5.2024</t>
+  </si>
+  <si>
+    <t>13.5.2024</t>
+  </si>
+  <si>
+    <t>26.4.2024</t>
+  </si>
+  <si>
+    <t>3.5.2024</t>
+  </si>
+  <si>
+    <t>22.4.2024</t>
+  </si>
+  <si>
+    <t>29.4.2024</t>
+  </si>
+  <si>
+    <t>16.5.2024</t>
+  </si>
+  <si>
+    <t>18.4.2024</t>
+  </si>
+  <si>
+    <t>11.4.2024</t>
+  </si>
+  <si>
+    <t>9.5.2024</t>
+  </si>
+  <si>
+    <t>2.5.2024</t>
+  </si>
+  <si>
+    <t>25.4.2024</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>13:50</t>
+  </si>
+  <si>
+    <t>16:50</t>
+  </si>
+  <si>
+    <t>15:50</t>
+  </si>
+  <si>
+    <t>19:50</t>
+  </si>
+  <si>
+    <t>10:50</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>12:50</t>
+  </si>
+  <si>
+    <t>14:50</t>
+  </si>
+  <si>
+    <t>18:50</t>
+  </si>
+  <si>
+    <t>11:50</t>
+  </si>
+  <si>
+    <t>09:50</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>Diplomový seminář II</t>
+  </si>
+  <si>
+    <t>Teorie automatů a formálních jazyků</t>
+  </si>
+  <si>
+    <t>Algoritmizace a programování I</t>
+  </si>
+  <si>
+    <t>Algoritmizace a programování II</t>
+  </si>
+  <si>
+    <t>Číslicové systémy</t>
+  </si>
+  <si>
+    <t>Didaktika informatiky II</t>
+  </si>
+  <si>
+    <t>Datová a informační bezpečnost</t>
+  </si>
+  <si>
+    <t>Datová a informační bezpečnost</t>
+  </si>
+  <si>
+    <t>Diplomový seminář I</t>
+  </si>
+  <si>
+    <t>Internetové technologie a protokoly</t>
+  </si>
+  <si>
+    <t>Linuxové technologie v praxi</t>
+  </si>
+  <si>
+    <t>Objektově orientované návrhové vzory</t>
+  </si>
+  <si>
+    <t>Operační systémy</t>
+  </si>
+  <si>
+    <t>Optimalizace</t>
+  </si>
+  <si>
+    <t>Parallel Programming</t>
+  </si>
+  <si>
+    <t>Pokročilé numerické metody</t>
+  </si>
+  <si>
+    <t>Programování pro internet</t>
+  </si>
+  <si>
+    <t>Projektový seminář II</t>
+  </si>
+  <si>
+    <t>Python and R for Data Science</t>
+  </si>
+  <si>
+    <t>Relační databázové systémy</t>
+  </si>
+  <si>
+    <t>Seminář k bakalářské práci I</t>
+  </si>
+  <si>
+    <t>Seminář k bakalářské práci II</t>
+  </si>
+  <si>
+    <t>Soft Computing</t>
+  </si>
+  <si>
+    <t>Semestrální projekt II</t>
+  </si>
+  <si>
+    <t>System Simulation</t>
+  </si>
+  <si>
+    <t>Teoretické základy informatiky II</t>
+  </si>
+  <si>
+    <t>Úvod do relačních databází</t>
+  </si>
+  <si>
+    <t>Základy elektroniky</t>
+  </si>
+  <si>
+    <t>Základy kyberbezpečnosti</t>
+  </si>
+  <si>
+    <t>Odborná praxe</t>
+  </si>
+  <si>
+    <t>Open Data</t>
+  </si>
+  <si>
+    <t>Odborný seminář IT</t>
+  </si>
+  <si>
+    <t>Průmyslová automatizace v praxi</t>
+  </si>
+  <si>
+    <t>Prezentace projektu</t>
+  </si>
+  <si>
+    <t>Semestrální projekt I</t>
+  </si>
+  <si>
+    <t>Semestrální projekt III</t>
+  </si>
+  <si>
+    <t>'Mgr. Jiří Fišer, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Jiří Škvor, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'doc. Ing. Mgr. Jiří Barilla, CSc.', 'Mgr. Jiří Fišer, Ph.D.', 'RNDr. Jan Krejčí, Ph.D.', 'RNDr. Petr Kubera, Ph.D.', 'doc. RNDr. Zbyšek Posel, Ph.D.', 'RNDr. Jiří Škvor, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Mgr. Viktor Maškov, DrSc.'</t>
+  </si>
+  <si>
+    <t>'Mgr. Martin Dolejš, Ph.D.', 'Mgr. Jiří Fišer, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'Mgr. Jiří Fišer, Ph.D.', 'RNDr. Jan Krejčí, Ph.D.', 'doc. RNDr. Mgr. Viktor Maškov, DrSc.', 'RNDr. Jiří Škvor, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'Mgr. Jiří Fišer, Ph.D.', 'RNDr. Jan Krejčí, Ph.D.', 'RNDr. Petr Kubera, Ph.D.', 'doc. RNDr. Zbyšek Posel, Ph.D.', 'RNDr. Jiří Škvor, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Petr Kubera, Ph.D.', 'doc. RNDr. Zbyšek Posel, Ph.D.', 'RNDr. Jiří Škvor, Ph.D.'</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>449, 251, 2776, 650, 3521, 2220</t>
+  </si>
+  <si>
+    <t>2239</t>
+  </si>
+  <si>
+    <t>4303, 251</t>
+  </si>
+  <si>
+    <t>251, 2776, 2239, 2220</t>
+  </si>
+  <si>
+    <t>251, 2776, 650, 3521, 2220</t>
+  </si>
+  <si>
+    <t>650, 3521, 2220</t>
+  </si>
+  <si>
+    <t>Kuba Pavel, Ing. Ph.D.</t>
+  </si>
+  <si>
+    <t>Fišer Jiří, Mgr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Škvor Jiří, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Barilla Jiří, doc. Ing. Mgr. CSc.</t>
+  </si>
+  <si>
+    <t>Škvára Jiří, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Haberzettl Petr, Ing.</t>
+  </si>
+  <si>
+    <t>Krejčí Jan, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Beránek Pavel, Ing. Mgr.</t>
+  </si>
+  <si>
+    <t>Moosaei Hossein, Dr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Kubera Petr, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Balín Kamil, Mgr.</t>
+  </si>
+  <si>
+    <t>Posel Zbyšek, doc. RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Burle Jan, Ing. Ph.D.</t>
+  </si>
+  <si>
+    <t>Svoboda Martin, Mgr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Sýkorová Květuše, Mgr.</t>
+  </si>
+  <si>
+    <t>Přibyl Jiří, PhDr. Ph.D.</t>
   </si>
 </sst>
 </file>
@@ -135,17 +642,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:H12" totalsRowShown="0">
-  <autoFilter ref="A1:H12"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L118" totalsRowShown="0">
+  <autoFilter ref="A1:L118"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="zkratka" dataDxfId="0"/>
     <tableColumn id="2" name="idno" dataDxfId="1"/>
     <tableColumn id="3" name="typAkceZkr" dataDxfId="0"/>
     <tableColumn id="4" name="rok" dataDxfId="1"/>
-    <tableColumn id="5" name="nazev" dataDxfId="0"/>
-    <tableColumn id="6" name="zkratka_right" dataDxfId="0"/>
-    <tableColumn id="7" name="seminariciUcitIdno" dataDxfId="1"/>
-    <tableColumn id="8" name="jmena" dataDxfId="0"/>
+    <tableColumn id="5" name="datum" dataDxfId="0"/>
+    <tableColumn id="6" name="hodinaSkutOd" dataDxfId="0"/>
+    <tableColumn id="7" name="hodinaSkutDo" dataDxfId="0"/>
+    <tableColumn id="8" name="katedra" dataDxfId="0"/>
+    <tableColumn id="9" name="nazev" dataDxfId="0"/>
+    <tableColumn id="10" name="seminarici" dataDxfId="0"/>
+    <tableColumn id="11" name="seminariciUcitIdno" dataDxfId="0"/>
+    <tableColumn id="12" name="jmena" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -436,13 +947,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,190 +978,3868 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2317</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2">
         <v>2023</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
-        <v>9292</v>
+        <v>2317</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2">
         <v>2023</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2317</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2">
         <v>2023</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2">
         <v>2023</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5958</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2">
         <v>2023</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2">
-        <v>9642</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2">
         <v>2023</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2">
         <v>2023</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>251</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>449</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="B16" s="2">
+        <v>1780</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2">
+        <v>251</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2">
+        <v>9114</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>251</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>650</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1165</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>650</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>9114</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3521</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>650</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>9642</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
         <v>5958</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>835</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="2">
+        <v>267</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="2">
+        <v>835</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="2">
+        <v>251</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1780</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="2">
+        <v>835</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2317</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2317</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2317</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2317</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2317</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2317</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="2">
+        <v>3521</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2317</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="2">
+        <v>3521</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2317</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="2">
+        <v>3521</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2317</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2317</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2317</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="2">
+        <v>3521</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" s="2">
+        <v>3521</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B80" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="2">
+        <v>9292</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" s="2">
+        <v>9292</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D85" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86" s="2">
+        <v>9292</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" s="2">
+        <v>9292</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D87" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="2">
+        <v>9292</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" s="2">
+        <v>3521</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D90" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D91" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" s="2">
+        <v>5958</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" s="2">
+        <v>251</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D94" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" s="2">
+        <v>251</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D96" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D98" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D99" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B100" s="2">
+        <v>251</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D100" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B101" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D101" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B102" s="2">
+        <v>251</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D102" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B103" s="2">
+        <v>251</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D103" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" s="2">
+        <v>251</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D105" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D106" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D107" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D108" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B109" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D109" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B110" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D110" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B111" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D111" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D112" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B113" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D113" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B114" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D114" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B115" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D115" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B116" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D116" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B117" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D117" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D118" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L118" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/seminare_bez_seminaricich.xlsx
+++ b/results/seminare_bez_seminaricich.xlsx
@@ -217,30 +217,30 @@
     <t>Se</t>
   </si>
   <si>
+    <t>17.4.2024</t>
+  </si>
+  <si>
     <t>24.4.2024</t>
   </si>
   <si>
     <t>15.5.2024</t>
   </si>
   <si>
-    <t>17.4.2024</t>
+    <t>30.4.2024</t>
   </si>
   <si>
     <t>23.4.2024</t>
   </si>
   <si>
-    <t>30.4.2024</t>
+    <t>14.5.2024</t>
+  </si>
+  <si>
+    <t>16.4.2024</t>
   </si>
   <si>
     <t>7.5.2024</t>
   </si>
   <si>
-    <t>16.4.2024</t>
-  </si>
-  <si>
-    <t>14.5.2024</t>
-  </si>
-  <si>
     <t>10.5.2024</t>
   </si>
   <si>
@@ -259,51 +259,51 @@
     <t>21.4.2024</t>
   </si>
   <si>
+    <t>6.5.2024</t>
+  </si>
+  <si>
+    <t>15.4.2024</t>
+  </si>
+  <si>
+    <t>19.4.2024</t>
+  </si>
+  <si>
+    <t>29.4.2024</t>
+  </si>
+  <si>
+    <t>3.5.2024</t>
+  </si>
+  <si>
+    <t>26.4.2024</t>
+  </si>
+  <si>
     <t>12.4.2024</t>
   </si>
   <si>
     <t>17.5.2024</t>
   </si>
   <si>
-    <t>19.4.2024</t>
-  </si>
-  <si>
-    <t>15.4.2024</t>
-  </si>
-  <si>
-    <t>6.5.2024</t>
-  </si>
-  <si>
     <t>13.5.2024</t>
   </si>
   <si>
-    <t>26.4.2024</t>
-  </si>
-  <si>
-    <t>3.5.2024</t>
-  </si>
-  <si>
     <t>22.4.2024</t>
   </si>
   <si>
-    <t>29.4.2024</t>
+    <t>9.5.2024</t>
+  </si>
+  <si>
+    <t>2.5.2024</t>
+  </si>
+  <si>
+    <t>11.4.2024</t>
+  </si>
+  <si>
+    <t>18.4.2024</t>
   </si>
   <si>
     <t>16.5.2024</t>
   </si>
   <si>
-    <t>18.4.2024</t>
-  </si>
-  <si>
-    <t>11.4.2024</t>
-  </si>
-  <si>
-    <t>9.5.2024</t>
-  </si>
-  <si>
-    <t>2.5.2024</t>
-  </si>
-  <si>
     <t>25.4.2024</t>
   </si>
   <si>
@@ -319,12 +319,12 @@
     <t>00:00</t>
   </si>
   <si>
+    <t>16:00</t>
+  </si>
+  <si>
     <t>13:00</t>
   </si>
   <si>
-    <t>16:00</t>
-  </si>
-  <si>
     <t>09:00</t>
   </si>
   <si>
@@ -346,12 +346,12 @@
     <t>13:50</t>
   </si>
   <si>
+    <t>15:50</t>
+  </si>
+  <si>
     <t>16:50</t>
   </si>
   <si>
-    <t>15:50</t>
-  </si>
-  <si>
     <t>19:50</t>
   </si>
   <si>
@@ -364,10 +364,10 @@
     <t>12:50</t>
   </si>
   <si>
+    <t>18:50</t>
+  </si>
+  <si>
     <t>14:50</t>
-  </si>
-  <si>
-    <t>18:50</t>
   </si>
   <si>
     <t>11:50</t>
@@ -1177,7 +1177,7 @@
         <v>98</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1231,7 +1231,7 @@
         <v>98</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1255,7 +1255,7 @@
         <v>2023</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>99</v>
@@ -1293,7 +1293,7 @@
         <v>2023</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>99</v>
@@ -1465,7 +1465,7 @@
         <v>101</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>120</v>
@@ -1499,7 +1499,7 @@
         <v>102</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>120</v>
@@ -1586,7 +1586,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>2220</v>
+        <v>251</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>66</v>
@@ -1606,7 +1606,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1614,7 +1614,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>251</v>
+        <v>2220</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>66</v>
@@ -1634,7 +1634,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1718,7 +1718,7 @@
         <v>77</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>114</v>
@@ -1824,7 +1824,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="2">
-        <v>2220</v>
+        <v>251</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>66</v>
@@ -1844,7 +1844,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1852,7 +1852,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>251</v>
+        <v>6973</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>66</v>
@@ -1872,7 +1872,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1880,7 +1880,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>6973</v>
+        <v>2220</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>66</v>
@@ -1900,7 +1900,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2000,7 +2000,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>650</v>
+        <v>9114</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>66</v>
@@ -2009,13 +2009,13 @@
         <v>2023</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>120</v>
@@ -2026,7 +2026,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2034,7 +2034,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>9114</v>
+        <v>650</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>66</v>
@@ -2043,13 +2043,13 @@
         <v>2023</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>120</v>
@@ -2060,7 +2060,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2305,7 +2305,7 @@
         <v>104</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2433,10 +2433,10 @@
         <v>2023</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>116</v>
@@ -2471,10 +2471,10 @@
         <v>2023</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>117</v>
@@ -2509,10 +2509,10 @@
         <v>2023</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>116</v>
@@ -2547,13 +2547,13 @@
         <v>2023</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>105</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>120</v>
@@ -2585,13 +2585,13 @@
         <v>2023</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>120</v>
@@ -2626,7 +2626,7 @@
         <v>68</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>117</v>
@@ -2714,7 +2714,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="2">
-        <v>835</v>
+        <v>251</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>66</v>
@@ -2738,7 +2738,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2746,7 +2746,7 @@
         <v>48</v>
       </c>
       <c r="B57" s="2">
-        <v>251</v>
+        <v>835</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>66</v>
@@ -2770,7 +2770,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2898,7 +2898,7 @@
         <v>53</v>
       </c>
       <c r="B62" s="2">
-        <v>2317</v>
+        <v>3521</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>66</v>
@@ -2910,17 +2910,17 @@
         <v>81</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2928,7 +2928,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="2">
-        <v>2317</v>
+        <v>3521</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>66</v>
@@ -2940,17 +2940,17 @@
         <v>82</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2967,7 +2967,7 @@
         <v>2023</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>107</v>
@@ -2988,7 +2988,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="2">
-        <v>2317</v>
+        <v>3521</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>66</v>
@@ -2997,20 +2997,20 @@
         <v>2023</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3027,13 +3027,13 @@
         <v>2023</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3057,13 +3057,13 @@
         <v>2023</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3078,7 +3078,7 @@
         <v>53</v>
       </c>
       <c r="B68" s="2">
-        <v>3521</v>
+        <v>2317</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>66</v>
@@ -3087,20 +3087,20 @@
         <v>2023</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3117,7 +3117,7 @@
         <v>2023</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>108</v>
@@ -3138,7 +3138,7 @@
         <v>53</v>
       </c>
       <c r="B70" s="2">
-        <v>3521</v>
+        <v>2317</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>66</v>
@@ -3147,20 +3147,20 @@
         <v>2023</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3177,13 +3177,13 @@
         <v>2023</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -3198,7 +3198,7 @@
         <v>53</v>
       </c>
       <c r="B72" s="2">
-        <v>3521</v>
+        <v>2317</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>66</v>
@@ -3207,20 +3207,20 @@
         <v>2023</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3237,13 +3237,13 @@
         <v>2023</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -3258,7 +3258,7 @@
         <v>53</v>
       </c>
       <c r="B74" s="2">
-        <v>2317</v>
+        <v>3521</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>66</v>
@@ -3267,20 +3267,20 @@
         <v>2023</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3288,7 +3288,7 @@
         <v>53</v>
       </c>
       <c r="B75" s="2">
-        <v>2317</v>
+        <v>3521</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>66</v>
@@ -3297,20 +3297,20 @@
         <v>2023</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3318,7 +3318,7 @@
         <v>53</v>
       </c>
       <c r="B76" s="2">
-        <v>3521</v>
+        <v>2317</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>66</v>
@@ -3327,20 +3327,20 @@
         <v>2023</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3348,7 +3348,7 @@
         <v>53</v>
       </c>
       <c r="B77" s="2">
-        <v>3521</v>
+        <v>2317</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>66</v>
@@ -3357,20 +3357,20 @@
         <v>2023</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3414,7 +3414,7 @@
         <v>55</v>
       </c>
       <c r="B79" s="2">
-        <v>2220</v>
+        <v>6973</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>66</v>
@@ -3442,7 +3442,7 @@
         <v>169</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3450,7 +3450,7 @@
         <v>55</v>
       </c>
       <c r="B80" s="2">
-        <v>6973</v>
+        <v>2220</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>66</v>
@@ -3478,7 +3478,7 @@
         <v>169</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3495,10 +3495,10 @@
         <v>2023</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>114</v>
@@ -3533,10 +3533,10 @@
         <v>2023</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>114</v>
@@ -3571,10 +3571,10 @@
         <v>2023</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>114</v>
@@ -3609,13 +3609,13 @@
         <v>2023</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>120</v>
@@ -3647,7 +3647,7 @@
         <v>98</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>120</v>
@@ -3673,13 +3673,13 @@
         <v>2023</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>120</v>
@@ -3705,13 +3705,13 @@
         <v>2023</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>120</v>
@@ -3737,13 +3737,13 @@
         <v>2023</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>120</v>
@@ -3856,7 +3856,7 @@
         <v>61</v>
       </c>
       <c r="B92" s="2">
-        <v>6259</v>
+        <v>251</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>66</v>
@@ -3865,13 +3865,13 @@
         <v>2023</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>97</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>120</v>
@@ -3886,7 +3886,7 @@
         <v>166</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -3894,7 +3894,7 @@
         <v>61</v>
       </c>
       <c r="B93" s="2">
-        <v>5958</v>
+        <v>6259</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>66</v>
@@ -3902,12 +3902,14 @@
       <c r="D93" s="2">
         <v>2023</v>
       </c>
-      <c r="E93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="F93" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>120</v>
@@ -3922,7 +3924,7 @@
         <v>166</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -3930,7 +3932,7 @@
         <v>61</v>
       </c>
       <c r="B94" s="2">
-        <v>251</v>
+        <v>6259</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>66</v>
@@ -3939,7 +3941,7 @@
         <v>2023</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>97</v>
@@ -3960,7 +3962,7 @@
         <v>166</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -3968,7 +3970,7 @@
         <v>61</v>
       </c>
       <c r="B95" s="2">
-        <v>251</v>
+        <v>6259</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>66</v>
@@ -3977,13 +3979,13 @@
         <v>2023</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>97</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>120</v>
@@ -3998,7 +4000,7 @@
         <v>166</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4006,7 +4008,7 @@
         <v>61</v>
       </c>
       <c r="B96" s="2">
-        <v>6259</v>
+        <v>251</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>66</v>
@@ -4015,7 +4017,7 @@
         <v>2023</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>97</v>
@@ -4036,7 +4038,7 @@
         <v>166</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4044,7 +4046,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="2">
-        <v>6259</v>
+        <v>251</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>66</v>
@@ -4053,7 +4055,7 @@
         <v>2023</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>97</v>
@@ -4074,7 +4076,7 @@
         <v>166</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4091,13 +4093,13 @@
         <v>2023</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>97</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>120</v>
@@ -4120,7 +4122,7 @@
         <v>61</v>
       </c>
       <c r="B99" s="2">
-        <v>6973</v>
+        <v>5958</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>66</v>
@@ -4148,7 +4150,7 @@
         <v>166</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4156,7 +4158,7 @@
         <v>61</v>
       </c>
       <c r="B100" s="2">
-        <v>251</v>
+        <v>6973</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>66</v>
@@ -4164,14 +4166,12 @@
       <c r="D100" s="2">
         <v>2023</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>120</v>
@@ -4186,7 +4186,7 @@
         <v>166</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4203,7 +4203,7 @@
         <v>2023</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>97</v>
@@ -4268,7 +4268,7 @@
         <v>61</v>
       </c>
       <c r="B103" s="2">
-        <v>251</v>
+        <v>2776</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>66</v>
@@ -4276,14 +4276,12 @@
       <c r="D103" s="2">
         <v>2023</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>120</v>
@@ -4298,7 +4296,7 @@
         <v>166</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4315,7 +4313,7 @@
         <v>2023</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>97</v>
@@ -4344,7 +4342,7 @@
         <v>61</v>
       </c>
       <c r="B105" s="2">
-        <v>2776</v>
+        <v>251</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>66</v>
@@ -4352,12 +4350,14 @@
       <c r="D105" s="2">
         <v>2023</v>
       </c>
-      <c r="E105" s="1"/>
+      <c r="E105" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F105" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>120</v>
@@ -4372,7 +4372,7 @@
         <v>166</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4389,13 +4389,13 @@
         <v>2023</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>105</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -4419,13 +4419,13 @@
         <v>2023</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>105</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -4481,13 +4481,13 @@
         <v>2023</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>120</v>
@@ -4519,7 +4519,7 @@
         <v>2023</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>103</v>
@@ -4557,13 +4557,13 @@
         <v>2023</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>120</v>
@@ -4633,13 +4633,13 @@
         <v>2023</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>120</v>
@@ -4747,13 +4747,13 @@
         <v>2023</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>120</v>
@@ -4785,13 +4785,13 @@
         <v>2023</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>120</v>

--- a/results/seminare_bez_seminaricich.xlsx
+++ b/results/seminare_bez_seminaricich.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="302">
   <si>
     <t>zkratka</t>
   </si>
@@ -52,21 +52,93 @@
     <t>jmena</t>
   </si>
   <si>
+    <t>0131</t>
+  </si>
+  <si>
+    <t>0162</t>
+  </si>
+  <si>
     <t>0201</t>
   </si>
   <si>
     <t>0204</t>
   </si>
   <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>AP11</t>
+  </si>
+  <si>
+    <t>B108</t>
+  </si>
+  <si>
+    <t>B213</t>
+  </si>
+  <si>
+    <t>B214</t>
+  </si>
+  <si>
+    <t>B308</t>
+  </si>
+  <si>
+    <t>B318</t>
+  </si>
+  <si>
+    <t>BK108</t>
+  </si>
+  <si>
+    <t>BK213</t>
+  </si>
+  <si>
+    <t>BK214</t>
+  </si>
+  <si>
+    <t>BK220</t>
+  </si>
+  <si>
+    <t>BK221</t>
+  </si>
+  <si>
+    <t>BK308</t>
+  </si>
+  <si>
+    <t>BK316</t>
+  </si>
+  <si>
+    <t>BK320</t>
+  </si>
+  <si>
+    <t>DIPL1</t>
+  </si>
+  <si>
     <t>DIPL2</t>
   </si>
   <si>
+    <t>DM3</t>
+  </si>
+  <si>
+    <t>DPS1</t>
+  </si>
+  <si>
     <t>DPS2</t>
   </si>
   <si>
+    <t>E100</t>
+  </si>
+  <si>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>IKT</t>
+  </si>
+  <si>
     <t>KAFJ</t>
   </si>
   <si>
+    <t>KANE</t>
+  </si>
+  <si>
     <t>KAPR1</t>
   </si>
   <si>
@@ -88,27 +160,45 @@
     <t>KDIP1</t>
   </si>
   <si>
+    <t>KDIP2</t>
+  </si>
+  <si>
     <t>KDIS</t>
   </si>
   <si>
     <t>KDPS1</t>
   </si>
   <si>
+    <t>KIKT</t>
+  </si>
+  <si>
     <t>KITP</t>
   </si>
   <si>
+    <t>KKPP</t>
+  </si>
+  <si>
+    <t>KKRSP</t>
+  </si>
+  <si>
     <t>KLTP</t>
   </si>
   <si>
     <t>KMSW</t>
   </si>
   <si>
+    <t>KN231</t>
+  </si>
+  <si>
     <t>KOAN</t>
   </si>
   <si>
     <t>KODT</t>
   </si>
   <si>
+    <t>KOOD</t>
+  </si>
+  <si>
     <t>KOONV</t>
   </si>
   <si>
@@ -124,15 +214,42 @@
     <t>KPAR</t>
   </si>
   <si>
+    <t>KPCA</t>
+  </si>
+  <si>
+    <t>KPDSA</t>
+  </si>
+  <si>
+    <t>KPEK</t>
+  </si>
+  <si>
     <t>KPNUM</t>
   </si>
   <si>
+    <t>KPP</t>
+  </si>
+  <si>
+    <t>KPPP</t>
+  </si>
+  <si>
     <t>KPRI</t>
   </si>
   <si>
+    <t>KPRM</t>
+  </si>
+  <si>
     <t>KPS2</t>
   </si>
   <si>
+    <t>KPSE</t>
+  </si>
+  <si>
+    <t>KPSPN</t>
+  </si>
+  <si>
+    <t>KPSPP</t>
+  </si>
+  <si>
     <t>KPYR</t>
   </si>
   <si>
@@ -142,12 +259,24 @@
     <t>KROB</t>
   </si>
   <si>
+    <t>KRSP</t>
+  </si>
+  <si>
+    <t>KRSPP</t>
+  </si>
+  <si>
+    <t>KSBP</t>
+  </si>
+  <si>
     <t>KSBP1</t>
   </si>
   <si>
     <t>KSBP2</t>
   </si>
   <si>
+    <t>KSDP</t>
+  </si>
+  <si>
     <t>KSOC</t>
   </si>
   <si>
@@ -172,18 +301,54 @@
     <t>KZKB</t>
   </si>
   <si>
+    <t>KZPS</t>
+  </si>
+  <si>
     <t>LTP</t>
   </si>
   <si>
+    <t>M103</t>
+  </si>
+  <si>
+    <t>M203</t>
+  </si>
+  <si>
+    <t>M304</t>
+  </si>
+  <si>
+    <t>M403</t>
+  </si>
+  <si>
+    <t>M404</t>
+  </si>
+  <si>
+    <t>MARK</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
     <t>MSW</t>
   </si>
   <si>
+    <t>N231</t>
+  </si>
+  <si>
+    <t>NADS1</t>
+  </si>
+  <si>
+    <t>NADS2</t>
+  </si>
+  <si>
     <t>NOP</t>
   </si>
   <si>
     <t>ODT</t>
   </si>
   <si>
+    <t>OPM</t>
+  </si>
+  <si>
     <t>OSIT</t>
   </si>
   <si>
@@ -193,18 +358,66 @@
     <t>PAR</t>
   </si>
   <si>
+    <t>PD100</t>
+  </si>
+  <si>
+    <t>PD101</t>
+  </si>
+  <si>
+    <t>PPP</t>
+  </si>
+  <si>
     <t>PRAX</t>
   </si>
   <si>
     <t>PREP</t>
   </si>
   <si>
+    <t>PRIZ</t>
+  </si>
+  <si>
+    <t>PRM</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
     <t>PS2</t>
   </si>
   <si>
+    <t>PS3</t>
+  </si>
+  <si>
+    <t>PS4</t>
+  </si>
+  <si>
+    <t>PSPP</t>
+  </si>
+  <si>
+    <t>PSPPN</t>
+  </si>
+  <si>
+    <t>PZS</t>
+  </si>
+  <si>
+    <t>REP</t>
+  </si>
+  <si>
     <t>ROB</t>
   </si>
   <si>
+    <t>RSPP</t>
+  </si>
+  <si>
+    <t>SBP</t>
+  </si>
+  <si>
+    <t>SBP1</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
     <t>SP1</t>
   </si>
   <si>
@@ -217,94 +430,10 @@
     <t>Se</t>
   </si>
   <si>
-    <t>17.4.2024</t>
-  </si>
-  <si>
-    <t>24.4.2024</t>
-  </si>
-  <si>
-    <t>15.5.2024</t>
-  </si>
-  <si>
-    <t>30.4.2024</t>
-  </si>
-  <si>
-    <t>23.4.2024</t>
-  </si>
-  <si>
-    <t>14.5.2024</t>
-  </si>
-  <si>
-    <t>16.4.2024</t>
-  </si>
-  <si>
-    <t>7.5.2024</t>
-  </si>
-  <si>
-    <t>10.5.2024</t>
-  </si>
-  <si>
-    <t>11.5.2024</t>
-  </si>
-  <si>
-    <t>18.5.2024</t>
-  </si>
-  <si>
-    <t>13.4.2024</t>
-  </si>
-  <si>
-    <t>12.5.2024</t>
-  </si>
-  <si>
-    <t>21.4.2024</t>
-  </si>
-  <si>
-    <t>6.5.2024</t>
-  </si>
-  <si>
-    <t>15.4.2024</t>
-  </si>
-  <si>
-    <t>19.4.2024</t>
-  </si>
-  <si>
-    <t>29.4.2024</t>
-  </si>
-  <si>
-    <t>3.5.2024</t>
-  </si>
-  <si>
-    <t>26.4.2024</t>
-  </si>
-  <si>
-    <t>12.4.2024</t>
-  </si>
-  <si>
-    <t>17.5.2024</t>
-  </si>
-  <si>
-    <t>13.5.2024</t>
-  </si>
-  <si>
-    <t>22.4.2024</t>
-  </si>
-  <si>
-    <t>9.5.2024</t>
-  </si>
-  <si>
-    <t>2.5.2024</t>
-  </si>
-  <si>
-    <t>11.4.2024</t>
-  </si>
-  <si>
-    <t>18.4.2024</t>
-  </si>
-  <si>
-    <t>16.5.2024</t>
-  </si>
-  <si>
-    <t>25.4.2024</t>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>00:00</t>
   </si>
   <si>
     <t>12:00</t>
@@ -313,78 +442,123 @@
     <t>15:00</t>
   </si>
   <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
     <t>19:00</t>
   </si>
   <si>
-    <t>00:00</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>17:00</t>
+    <t>08:00</t>
   </si>
   <si>
     <t>11:00</t>
   </si>
   <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>08:00</t>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>15:50</t>
   </si>
   <si>
     <t>13:50</t>
   </si>
   <si>
-    <t>15:50</t>
-  </si>
-  <si>
     <t>16:50</t>
   </si>
   <si>
+    <t>11:50</t>
+  </si>
+  <si>
+    <t>14:50</t>
+  </si>
+  <si>
+    <t>12:50</t>
+  </si>
+  <si>
+    <t>09:50</t>
+  </si>
+  <si>
+    <t>20:50</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
     <t>19:50</t>
   </si>
   <si>
     <t>10:50</t>
   </si>
   <si>
-    <t>17:50</t>
-  </si>
-  <si>
-    <t>12:50</t>
-  </si>
-  <si>
     <t>18:50</t>
   </si>
   <si>
-    <t>14:50</t>
-  </si>
-  <si>
-    <t>11:50</t>
-  </si>
-  <si>
-    <t>09:50</t>
+    <t>07:50</t>
+  </si>
+  <si>
+    <t>08:50</t>
+  </si>
+  <si>
+    <t>KCH</t>
+  </si>
+  <si>
+    <t>KMA</t>
   </si>
   <si>
     <t>KI</t>
   </si>
   <si>
+    <t>Exkurze</t>
+  </si>
+  <si>
+    <t>Odborná angličtina</t>
+  </si>
+  <si>
+    <t>Odborný seminář A</t>
+  </si>
+  <si>
+    <t>Odborný seminář B</t>
+  </si>
+  <si>
+    <t>Laboratorní cvičení z biochemie</t>
+  </si>
+  <si>
+    <t>Seminář z průmyslové chemie</t>
+  </si>
+  <si>
+    <t>Didaktika matematiky III</t>
+  </si>
+  <si>
+    <t>Diplomový seminář I</t>
+  </si>
+  <si>
     <t>Diplomový seminář II</t>
   </si>
   <si>
+    <t>Informační a komunikační technologie</t>
+  </si>
+  <si>
     <t>Teorie automatů a formálních jazyků</t>
   </si>
   <si>
+    <t>Analogová elektronika</t>
+  </si>
+  <si>
     <t>Algoritmizace a programování I</t>
   </si>
   <si>
@@ -403,15 +577,18 @@
     <t>Datová a informační bezpečnost</t>
   </si>
   <si>
-    <t>Diplomový seminář I</t>
-  </si>
-  <si>
     <t>Internetové technologie a protokoly</t>
   </si>
   <si>
     <t>Linuxové technologie v praxi</t>
   </si>
   <si>
+    <t>Seminář k diplomové práci A</t>
+  </si>
+  <si>
+    <t>Objektově orientovaný návrh</t>
+  </si>
+  <si>
     <t>Objektově orientované návrhové vzory</t>
   </si>
   <si>
@@ -424,6 +601,15 @@
     <t>Parallel Programming</t>
   </si>
   <si>
+    <t>Architektura počítačů</t>
+  </si>
+  <si>
+    <t>Pokročilé datové struktury a algoritmy</t>
+  </si>
+  <si>
+    <t>Podniková ekonomika</t>
+  </si>
+  <si>
     <t>Pokročilé numerické metody</t>
   </si>
   <si>
@@ -433,6 +619,9 @@
     <t>Projektový seminář II</t>
   </si>
   <si>
+    <t>Počítačové sítě</t>
+  </si>
+  <si>
     <t>Python and R for Data Science</t>
   </si>
   <si>
@@ -466,6 +655,12 @@
     <t>Základy kyberbezpečnosti</t>
   </si>
   <si>
+    <t>Základy počítačových sítí a protokolů</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
     <t>Odborná praxe</t>
   </si>
   <si>
@@ -481,21 +676,42 @@
     <t>Prezentace projektu</t>
   </si>
   <si>
+    <t>Repetitorium matematiky</t>
+  </si>
+  <si>
     <t>Semestrální projekt I</t>
   </si>
   <si>
     <t>Semestrální projekt III</t>
   </si>
   <si>
+    <t>'Ing. Ivana Kadlečková'</t>
+  </si>
+  <si>
+    <t>'doc. Ing. Jan Čermák, CSc.'</t>
+  </si>
+  <si>
+    <t>'doc. Ing. Jaromír Lederer, CSc.'</t>
+  </si>
+  <si>
+    <t>'doc. PaedDr. Petr Eisenmann, CSc.', 'PhDr. Magdalena Krátká, Ph.D.'</t>
+  </si>
+  <si>
     <t>'Mgr. Jiří Fišer, Ph.D.'</t>
   </si>
   <si>
+    <t>'Ing. Pavel Kuba, Ph.D.'</t>
+  </si>
+  <si>
     <t>'RNDr. Jiří Škvor, Ph.D.'</t>
   </si>
   <si>
     <t>'doc. Ing. Mgr. Jiří Barilla, CSc.', 'Mgr. Jiří Fišer, Ph.D.', 'RNDr. Jan Krejčí, Ph.D.', 'RNDr. Petr Kubera, Ph.D.', 'doc. RNDr. Zbyšek Posel, Ph.D.', 'RNDr. Jiří Škvor, Ph.D.'</t>
   </si>
   <si>
+    <t>'Ing. Michaela Jánská, PhD.'</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Mgr. Viktor Maškov, DrSc.'</t>
   </si>
   <si>
@@ -505,21 +721,42 @@
     <t>'Mgr. Jiří Fišer, Ph.D.', 'RNDr. Jan Krejčí, Ph.D.', 'doc. RNDr. Mgr. Viktor Maškov, DrSc.', 'RNDr. Jiří Škvor, Ph.D.'</t>
   </si>
   <si>
+    <t>'Mgr. Lenka Cibochová', 'Mgr. Jana Kasperová', 'PhDr. Magdalena Krátká, Ph.D.'</t>
+  </si>
+  <si>
     <t>'Mgr. Jiří Fišer, Ph.D.', 'RNDr. Jan Krejčí, Ph.D.', 'RNDr. Petr Kubera, Ph.D.', 'doc. RNDr. Zbyšek Posel, Ph.D.', 'RNDr. Jiří Škvor, Ph.D.'</t>
   </si>
   <si>
     <t>'RNDr. Petr Kubera, Ph.D.', 'doc. RNDr. Zbyšek Posel, Ph.D.', 'RNDr. Jiří Škvor, Ph.D.'</t>
   </si>
   <si>
+    <t>4226</t>
+  </si>
+  <si>
+    <t>1064</t>
+  </si>
+  <si>
+    <t>1543</t>
+  </si>
+  <si>
+    <t>261, 425</t>
+  </si>
+  <si>
     <t>251</t>
   </si>
   <si>
+    <t>2317</t>
+  </si>
+  <si>
     <t>2220</t>
   </si>
   <si>
     <t>449, 251, 2776, 650, 3521, 2220</t>
   </si>
   <si>
+    <t>3143</t>
+  </si>
+  <si>
     <t>2239</t>
   </si>
   <si>
@@ -529,22 +766,76 @@
     <t>251, 2776, 2239, 2220</t>
   </si>
   <si>
+    <t>2228, 8741, 425</t>
+  </si>
+  <si>
     <t>251, 2776, 650, 3521, 2220</t>
   </si>
   <si>
     <t>650, 3521, 2220</t>
   </si>
   <si>
+    <t>Barilla Jiří, doc. Ing. Mgr. CSc.</t>
+  </si>
+  <si>
+    <t>Smutná Zdeňka, Mgr.</t>
+  </si>
+  <si>
+    <t>Štěbetáková Michaela, Mgr.</t>
+  </si>
+  <si>
     <t>Kuba Pavel, Ing. Ph.D.</t>
   </si>
   <si>
+    <t>Babichev Sergii, prof. CSc., DSc.</t>
+  </si>
+  <si>
+    <t>Pavlík Jaroslav, doc. RNDr. CSc.</t>
+  </si>
+  <si>
+    <t>Nezbeda Ivo, prof. RNDr. DrSc.</t>
+  </si>
+  <si>
+    <t>Čermák Jan, doc. Ing. CSc.</t>
+  </si>
+  <si>
+    <t>Paříková Anna, Mgr.</t>
+  </si>
+  <si>
+    <t>Kadlečková Ivana, Ing.</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Thu Huong, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Škvorová Magda, Ing. Ph.D.</t>
+  </si>
+  <si>
+    <t>Šmídl Milan, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Šimek Josef, Ing. Ph.D.</t>
+  </si>
+  <si>
+    <t>Škvor Jiří, RNDr. Ph.D.</t>
+  </si>
+  <si>
     <t>Fišer Jiří, Mgr. Ph.D.</t>
   </si>
   <si>
-    <t>Škvor Jiří, RNDr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Barilla Jiří, doc. Ing. Mgr. CSc.</t>
+    <t>Raška Pavel, doc. Mgr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Kučerová Silvie Rita, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Anděl Jiří, doc. RNDr. CSc.</t>
+  </si>
+  <si>
+    <t>Sýkorová Květuše, Mgr.</t>
+  </si>
+  <si>
+    <t>Lustig František, doc. RNDr. CSc.</t>
   </si>
   <si>
     <t>Škvára Jiří, RNDr. Ph.D.</t>
@@ -559,6 +850,21 @@
     <t>Beránek Pavel, Ing. Mgr.</t>
   </si>
   <si>
+    <t>Hejnová Eva, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Pelikánová Monika, Mgr.</t>
+  </si>
+  <si>
+    <t>Svobodová Silvie, PhDr. Ing. Ph.D.</t>
+  </si>
+  <si>
+    <t>Krátká Magdalena, PhDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Trahorsch Petr, Mgr. Ph.D.</t>
+  </si>
+  <si>
     <t>Moosaei Hossein, Dr. Ph.D.</t>
   </si>
   <si>
@@ -571,16 +877,49 @@
     <t>Posel Zbyšek, doc. RNDr. Ph.D.</t>
   </si>
   <si>
+    <t>Zimová Štěpánka, Ing.</t>
+  </si>
+  <si>
     <t>Burle Jan, Ing. Ph.D.</t>
   </si>
   <si>
+    <t>Loukotová Lucie, Mgr.</t>
+  </si>
+  <si>
     <t>Svoboda Martin, Mgr. Ph.D.</t>
   </si>
   <si>
-    <t>Sýkorová Květuše, Mgr.</t>
+    <t>Králík Jiří, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Varady Michal, doc. RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Eisenmann Petr, doc. PaedDr. CSc.</t>
+  </si>
+  <si>
+    <t>Gryndler Milan, prof. doc. RNDr. CSc.</t>
   </si>
   <si>
     <t>Přibyl Jiří, PhDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Moučka Filip, doc. RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Švec Martin, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Kormunda Martin, doc. Ing. Ph.D.</t>
+  </si>
+  <si>
+    <t>Slavíková Lenka, doc. Ing. Ph.D.</t>
+  </si>
+  <si>
+    <t>Kuřil Martin, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Kádek Gabriel, Mgr.</t>
   </si>
 </sst>
 </file>
@@ -642,8 +981,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L118" totalsRowShown="0">
-  <autoFilter ref="A1:L118"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L243" totalsRowShown="0">
+  <autoFilter ref="A1:L243"/>
   <tableColumns count="12">
     <tableColumn id="1" name="zkratka" dataDxfId="0"/>
     <tableColumn id="2" name="idno" dataDxfId="1"/>
@@ -947,7 +1286,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L118"/>
+  <dimension ref="A1:L243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -996,136 +1335,130 @@
         <v>12</v>
       </c>
       <c r="B2" s="2">
-        <v>2317</v>
+        <v>449</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2">
         <v>2023</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>2317</v>
+        <v>7684</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2">
         <v>2023</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>2317</v>
+        <v>8431</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D4" s="2">
         <v>2023</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>173</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2317</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D5" s="2">
         <v>2023</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D6" s="2">
         <v>2023</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1135,23 +1468,21 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D7" s="2">
         <v>2023</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1161,1002 +1492,982 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3416</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D8" s="2">
         <v>2023</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>308</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D9" s="2">
         <v>2023</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D10" s="2">
         <v>2023</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
-        <v>2220</v>
+        <v>1064</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D11" s="2">
         <v>2023</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>175</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>2220</v>
+        <v>8946</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D12" s="2">
         <v>2023</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>449</v>
+        <v>1064</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D13" s="2">
         <v>2023</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>176</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
-        <v>6259</v>
+        <v>4226</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D14" s="2">
         <v>2023</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
-        <v>6259</v>
+        <v>1064</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D15" s="2">
         <v>2023</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
-        <v>1780</v>
+        <v>4226</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D16" s="2">
         <v>2023</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
-        <v>2776</v>
+        <v>429</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D17" s="2">
         <v>2023</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="L17" s="1" t="s">
-        <v>179</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2">
-        <v>2776</v>
+        <v>305</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D18" s="2">
         <v>2023</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>126</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>179</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2">
-        <v>2776</v>
+        <v>8946</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D19" s="2">
         <v>2023</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="L19" s="1" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2">
-        <v>2776</v>
+        <v>4226</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D20" s="2">
         <v>2023</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="L20" s="1" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2">
-        <v>251</v>
+        <v>2856</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D21" s="2">
         <v>2023</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>2220</v>
+        <v>3704</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D22" s="2">
         <v>2023</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>6973</v>
+        <v>4226</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D23" s="2">
         <v>2023</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="L23" s="1" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2">
-        <v>2220</v>
+        <v>429</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D24" s="2">
         <v>2023</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>175</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>2776</v>
+        <v>4226</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D25" s="2">
         <v>2023</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B26" s="2">
+        <v>9475</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D26" s="2">
         <v>2023</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>6973</v>
+        <v>2220</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D27" s="2">
         <v>2023</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>9114</v>
+        <v>251</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D28" s="2">
         <v>2023</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="2">
-        <v>251</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D29" s="2">
         <v>2023</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>6973</v>
+        <v>2220</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D30" s="2">
         <v>2023</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="L30" s="1" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2">
         <v>2220</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D31" s="2">
         <v>2023</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="L31" s="1" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2">
-        <v>6973</v>
+        <v>1434</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D32" s="2">
         <v>2023</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
-        <v>180</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>650</v>
+        <v>3528</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D33" s="2">
         <v>2023</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1" t="s">
-        <v>182</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>1165</v>
+        <v>312</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D34" s="2">
         <v>2023</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>9114</v>
+        <v>1434</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D35" s="2">
         <v>2023</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2">
-        <v>650</v>
+        <v>3528</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D36" s="2">
         <v>2023</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>182</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>3521</v>
+        <v>312</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D37" s="2">
         <v>2023</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>650</v>
+        <v>835</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D38" s="2">
         <v>2023</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+        <v>178</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="L38" s="1" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>9642</v>
+        <v>835</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D39" s="2">
         <v>2023</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+        <v>178</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="L39" s="1" t="s">
-        <v>185</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2164,125 +2475,135 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>5958</v>
+        <v>449</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D40" s="2">
         <v>2023</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>186</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="2">
+        <v>835</v>
+      </c>
       <c r="C41" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D41" s="2">
         <v>2023</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+        <v>178</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2">
-        <v>835</v>
+        <v>449</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D42" s="2">
         <v>2023</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2">
-        <v>2776</v>
+        <v>5232</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D43" s="2">
         <v>2023</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2290,29 +2611,31 @@
         <v>41</v>
       </c>
       <c r="B44" s="2">
-        <v>2776</v>
+        <v>6259</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D44" s="2">
         <v>2023</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2320,35 +2643,31 @@
         <v>42</v>
       </c>
       <c r="B45" s="2">
-        <v>2220</v>
+        <v>6259</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D45" s="2">
         <v>2023</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
       <c r="L45" s="1" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2356,35 +2675,31 @@
         <v>43</v>
       </c>
       <c r="B46" s="2">
-        <v>2220</v>
+        <v>1780</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D46" s="2">
         <v>2023</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
       <c r="L46" s="1" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2392,69 +2707,63 @@
         <v>44</v>
       </c>
       <c r="B47" s="2">
-        <v>6973</v>
+        <v>2776</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D47" s="2">
         <v>2023</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1" t="s">
-        <v>180</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2">
-        <v>6259</v>
+        <v>2776</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D48" s="2">
         <v>2023</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
       <c r="L48" s="1" t="s">
-        <v>177</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2462,251 +2771,203 @@
         <v>45</v>
       </c>
       <c r="B49" s="2">
-        <v>6259</v>
+        <v>2776</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D49" s="2">
         <v>2023</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
       <c r="L49" s="1" t="s">
-        <v>177</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="2">
-        <v>6259</v>
+        <v>2776</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D50" s="2">
         <v>2023</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
       <c r="L50" s="1" t="s">
-        <v>177</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B51" s="2">
-        <v>6259</v>
+        <v>2220</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D51" s="2">
         <v>2023</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
       <c r="L51" s="1" t="s">
-        <v>177</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B52" s="2">
-        <v>6259</v>
+        <v>2220</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D52" s="2">
         <v>2023</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
       <c r="L52" s="1" t="s">
-        <v>177</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B53" s="2">
-        <v>6259</v>
+        <v>251</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D53" s="2">
         <v>2023</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
       <c r="L53" s="1" t="s">
-        <v>177</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="B54" s="2">
+        <v>251</v>
+      </c>
       <c r="C54" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D54" s="2">
         <v>2023</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>145</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
+      <c r="L54" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" s="2">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D55" s="2">
         <v>2023</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>146</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2717,28 +2978,24 @@
         <v>251</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D56" s="2">
         <v>2023</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1" t="s">
-        <v>174</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2746,241 +3003,259 @@
         <v>48</v>
       </c>
       <c r="B57" s="2">
-        <v>835</v>
+        <v>2220</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D57" s="2">
         <v>2023</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" s="2">
         <v>2220</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D58" s="2">
         <v>2023</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59" s="2">
-        <v>1780</v>
+        <v>6973</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D59" s="2">
         <v>2023</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>148</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1" t="s">
-        <v>178</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60" s="2">
-        <v>835</v>
+        <v>2220</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D60" s="2">
         <v>2023</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="L60" s="1" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2220</v>
+      </c>
       <c r="C61" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D61" s="2">
         <v>2023</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B62" s="2">
-        <v>3521</v>
+        <v>835</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D62" s="2">
         <v>2023</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="L62" s="1" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B63" s="2">
-        <v>3521</v>
+        <v>835</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D63" s="2">
         <v>2023</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="L63" s="1" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B64" s="2">
-        <v>2317</v>
+        <v>2776</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D64" s="2">
         <v>2023</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
-        <v>173</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2988,29 +3263,27 @@
         <v>53</v>
       </c>
       <c r="B65" s="2">
-        <v>3521</v>
+        <v>301</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D65" s="2">
         <v>2023</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3018,29 +3291,27 @@
         <v>53</v>
       </c>
       <c r="B66" s="2">
-        <v>2317</v>
+        <v>8744</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D66" s="2">
         <v>2023</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1" t="s">
-        <v>173</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3048,29 +3319,27 @@
         <v>53</v>
       </c>
       <c r="B67" s="2">
-        <v>2317</v>
+        <v>8952</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D67" s="2">
         <v>2023</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3078,29 +3347,27 @@
         <v>53</v>
       </c>
       <c r="B68" s="2">
-        <v>2317</v>
+        <v>425</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D68" s="2">
         <v>2023</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1" t="s">
-        <v>173</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3108,29 +3375,27 @@
         <v>53</v>
       </c>
       <c r="B69" s="2">
-        <v>2317</v>
+        <v>2776</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D69" s="2">
         <v>2023</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1" t="s">
-        <v>173</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3138,347 +3403,307 @@
         <v>53</v>
       </c>
       <c r="B70" s="2">
-        <v>2317</v>
+        <v>6384</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D70" s="2">
         <v>2023</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B71" s="2">
-        <v>2317</v>
+        <v>8744</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D71" s="2">
         <v>2023</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1" t="s">
-        <v>173</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B72" s="2">
-        <v>2317</v>
+        <v>8952</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D72" s="2">
         <v>2023</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B73" s="2">
-        <v>2317</v>
+        <v>2776</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D73" s="2">
         <v>2023</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
-        <v>173</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B74" s="2">
-        <v>3521</v>
+        <v>2776</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D74" s="2">
         <v>2023</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B75" s="2">
-        <v>3521</v>
+        <v>425</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D75" s="2">
         <v>2023</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1" t="s">
-        <v>184</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B76" s="2">
-        <v>2317</v>
+        <v>3704</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D76" s="2">
         <v>2023</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B77" s="2">
-        <v>2317</v>
+        <v>301</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D77" s="2">
         <v>2023</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1" t="s">
-        <v>173</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B78" s="2">
-        <v>2220</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D78" s="2">
         <v>2023</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>175</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B79" s="2">
         <v>6973</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D79" s="2">
         <v>2023</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
-        <v>180</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B80" s="2">
-        <v>2220</v>
+        <v>6973</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D80" s="2">
         <v>2023</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
       <c r="L80" s="1" t="s">
-        <v>175</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3489,1357 +3714,4783 @@
         <v>6973</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D81" s="2">
         <v>2023</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J81" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K81" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
       <c r="L81" s="1" t="s">
-        <v>180</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B82" s="2">
-        <v>6973</v>
+        <v>4226</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D82" s="2">
         <v>2023</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B83" s="2">
-        <v>6973</v>
+        <v>9114</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D83" s="2">
         <v>2023</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>170</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
       <c r="L83" s="1" t="s">
-        <v>180</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B84" s="2">
-        <v>9292</v>
+        <v>6973</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D84" s="2">
         <v>2023</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
+      <c r="L84" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B85" s="2">
-        <v>9292</v>
+        <v>2220</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D85" s="2">
         <v>2023</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
+      <c r="L85" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B86" s="2">
-        <v>9292</v>
+        <v>251</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D86" s="2">
         <v>2023</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
+      <c r="L86" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B87" s="2">
-        <v>9292</v>
+        <v>6973</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D87" s="2">
         <v>2023</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
+      <c r="L87" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B88" s="2">
-        <v>9292</v>
+        <v>6973</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D88" s="2">
         <v>2023</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
+      <c r="L88" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B89" s="2">
-        <v>3521</v>
+        <v>650</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D89" s="2">
         <v>2023</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1" t="s">
-        <v>184</v>
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B90" s="2">
-        <v>2220</v>
+        <v>1165</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D90" s="2">
         <v>2023</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1" t="s">
-        <v>175</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B91" s="2">
-        <v>6973</v>
+        <v>650</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D91" s="2">
         <v>2023</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
       <c r="L91" s="1" t="s">
-        <v>180</v>
+        <v>284</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B92" s="2">
-        <v>251</v>
+        <v>9114</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D92" s="2">
         <v>2023</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
       <c r="L92" s="1" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B93" s="2">
-        <v>6259</v>
+        <v>3521</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D93" s="2">
         <v>2023</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
       <c r="L93" s="1" t="s">
-        <v>177</v>
+        <v>286</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B94" s="2">
-        <v>6259</v>
+        <v>2317</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D94" s="2">
         <v>2023</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
       <c r="L94" s="1" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B95" s="2">
-        <v>6259</v>
+        <v>251</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D95" s="2">
         <v>2023</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
       <c r="L95" s="1" t="s">
-        <v>177</v>
+        <v>268</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B96" s="2">
-        <v>251</v>
+        <v>7352</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D96" s="2">
         <v>2023</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
       <c r="L96" s="1" t="s">
-        <v>174</v>
+        <v>287</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B97" s="2">
-        <v>251</v>
+        <v>2220</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D97" s="2">
         <v>2023</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
       <c r="L97" s="1" t="s">
-        <v>174</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B98" s="2">
-        <v>6259</v>
+        <v>650</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D98" s="2">
         <v>2023</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
       <c r="L98" s="1" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B99" s="2">
-        <v>5958</v>
+        <v>425</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D99" s="2">
         <v>2023</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
       <c r="L99" s="1" t="s">
-        <v>186</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B100" s="2">
-        <v>6973</v>
+        <v>8952</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D100" s="2">
         <v>2023</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
       <c r="L100" s="1" t="s">
-        <v>180</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B101" s="2">
-        <v>6259</v>
+        <v>8744</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D101" s="2">
         <v>2023</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
       <c r="L101" s="1" t="s">
-        <v>177</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B102" s="2">
-        <v>251</v>
+        <v>2776</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D102" s="2">
         <v>2023</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
       <c r="L102" s="1" t="s">
-        <v>174</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B103" s="2">
-        <v>2776</v>
+        <v>301</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D103" s="2">
         <v>2023</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
       <c r="L103" s="1" t="s">
-        <v>179</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B104" s="2">
-        <v>251</v>
+        <v>6384</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D104" s="2">
         <v>2023</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
       <c r="L104" s="1" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B105" s="2">
-        <v>251</v>
+        <v>2776</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D105" s="2">
         <v>2023</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
       <c r="L105" s="1" t="s">
-        <v>174</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B106" s="2">
-        <v>2776</v>
+        <v>3704</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D106" s="2">
         <v>2023</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B107" s="2">
-        <v>2776</v>
+        <v>8952</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D107" s="2">
         <v>2023</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1" t="s">
-        <v>179</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B108" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="B108" s="2">
+        <v>425</v>
+      </c>
       <c r="C108" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D108" s="2">
         <v>2023</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L108" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B109" s="2">
-        <v>6259</v>
+        <v>425</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D109" s="2">
         <v>2023</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
       <c r="L109" s="1" t="s">
-        <v>177</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B110" s="2">
-        <v>6259</v>
+        <v>301</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D110" s="2">
         <v>2023</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
       <c r="L110" s="1" t="s">
-        <v>177</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B111" s="2">
-        <v>6259</v>
+        <v>9642</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D111" s="2">
         <v>2023</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
       <c r="L111" s="1" t="s">
-        <v>177</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B112" s="2">
-        <v>6259</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B112" s="2"/>
       <c r="C112" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D112" s="2">
         <v>2023</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B113" s="2">
-        <v>6259</v>
+        <v>3188</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D113" s="2">
         <v>2023</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
       <c r="L113" s="1" t="s">
-        <v>177</v>
+        <v>289</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B114" s="2">
-        <v>6259</v>
+        <v>5958</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D114" s="2">
         <v>2023</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B115" s="2">
-        <v>6259</v>
+        <v>2776</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D115" s="2">
         <v>2023</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
       <c r="L115" s="1" t="s">
-        <v>177</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B116" s="2">
-        <v>6259</v>
+        <v>2776</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D116" s="2">
         <v>2023</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
       <c r="L116" s="1" t="s">
-        <v>177</v>
+        <v>276</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B117" s="2">
-        <v>6259</v>
+        <v>303</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D117" s="2">
         <v>2023</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
       <c r="L117" s="1" t="s">
-        <v>177</v>
+        <v>291</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B118" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2776</v>
+      </c>
       <c r="C118" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D118" s="2">
         <v>2023</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" s="2">
+        <v>3704</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D119" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B120" s="2">
+        <v>425</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D120" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B121" s="2">
+        <v>8952</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D121" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B122" s="2">
+        <v>8952</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D122" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D123" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B124" s="2">
+        <v>425</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D124" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B125" s="2">
+        <v>301</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D125" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D126" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B127" s="2">
+        <v>835</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D127" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B128" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D128" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B129" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D129" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B130" s="2">
+        <v>3704</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D130" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D131" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B132" s="2">
+        <v>8952</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D132" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B133" s="2">
+        <v>6384</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D133" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B134" s="2">
+        <v>425</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D134" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B135" s="2">
+        <v>8952</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D135" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B136" s="2">
+        <v>301</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D136" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B137" s="2">
+        <v>615</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D137" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B138" s="2">
+        <v>261</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D138" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B139" s="2">
+        <v>3661</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D139" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B140" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D140" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B141" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D141" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B142" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D142" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D143" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D144" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B145" s="2">
+        <v>261</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D145" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B146" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D146" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B147" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D147" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B148" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D148" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D149" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B150" s="2">
+        <v>267</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D150" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B151" s="2">
+        <v>835</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D151" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B152" s="2">
+        <v>251</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D152" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B153" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D153" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B154" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D154" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B155" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D155" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B156" s="2">
+        <v>1780</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D156" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B157" s="2">
+        <v>835</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D157" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B158" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D158" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B159" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D159" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D160" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B161" s="2">
+        <v>3222</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D161" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B162" s="2">
+        <v>5958</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D162" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B163" s="2">
+        <v>3222</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D163" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B164" s="2">
+        <v>613</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D164" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H118" s="1" t="s">
+      <c r="B165" s="2">
+        <v>3222</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D165" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B166" s="2">
+        <v>615</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D166" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B167" s="2"/>
+      <c r="C167" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D167" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L167" s="1"/>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D168" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B169" s="2">
+        <v>2317</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D169" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B170" s="2">
+        <v>2317</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D170" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B171" s="2">
+        <v>3521</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D171" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B172" s="2">
+        <v>4226</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D172" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B173" s="2">
+        <v>2384</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D173" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B174" s="2">
+        <v>308</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D174" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B175" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D175" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B176" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D176" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B177" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D177" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B178" s="2">
+        <v>267</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D178" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B179" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D179" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B180" s="2">
+        <v>9292</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D180" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B181" s="2">
+        <v>3521</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D181" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B182" s="2">
+        <v>1434</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D182" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B183" s="2">
+        <v>4747</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D183" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B184" s="2">
+        <v>3704</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D184" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B185" s="2">
+        <v>6384</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D185" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B186" s="2">
+        <v>425</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D186" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B187" s="2">
+        <v>301</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D187" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B188" s="2">
+        <v>425</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D188" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B189" s="2">
+        <v>8952</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D189" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B190" s="2">
+        <v>425</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D190" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B191" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D191" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B192" s="2">
+        <v>264</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D192" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B193" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D193" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B194" s="2">
+        <v>7352</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D194" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I118" s="1" t="s">
+      <c r="B195" s="2">
+        <v>3188</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D195" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B196" s="2"/>
+      <c r="C196" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D196" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B197" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D197" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B198" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D198" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B199" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D199" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B200" s="2">
+        <v>251</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D200" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B201" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D201" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="A202" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B202" s="2">
+        <v>5958</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D202" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="A203" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B203" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D203" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="A204" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B204" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D204" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="A205" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B205" s="2">
+        <v>251</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D205" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="A206" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B206" s="2"/>
+      <c r="C206" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D206" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="A207" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B207" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D207" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="A208" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B208" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D208" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="A209" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B209" s="2">
+        <v>251</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D209" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="A210" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B210" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D210" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="A211" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B211" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D211" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="A212" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B212" s="2"/>
+      <c r="C212" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D212" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="A213" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B213" s="2">
+        <v>6384</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D213" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
+      <c r="A214" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B214" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D214" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="A215" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B215" s="2">
+        <v>8744</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D215" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
+      <c r="A216" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B216" s="2">
+        <v>425</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D216" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
+      <c r="A217" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B217" s="2">
+        <v>301</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D217" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
+      <c r="A218" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B218" s="2">
+        <v>8952</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D218" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
+      <c r="A219" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B219" s="2">
+        <v>8952</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D219" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
+      <c r="A220" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B220" s="2">
+        <v>6384</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D220" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
+      <c r="A221" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B221" s="2">
+        <v>3704</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D221" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
+      <c r="A222" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B222" s="2">
+        <v>303</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D222" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
+      <c r="A223" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B223" s="2">
+        <v>9489</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D223" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
+      <c r="A224" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B224" s="2">
+        <v>3521</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D224" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
+      <c r="A225" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B225" s="2"/>
+      <c r="C225" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D225" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K225" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L225" s="1"/>
+    </row>
+    <row r="226" spans="1:12">
+      <c r="A226" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B226" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D226" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
+      <c r="A227" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B227" s="2">
+        <v>8744</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D227" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
+      <c r="A228" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B228" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D228" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="A229" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B229" s="2"/>
+      <c r="C229" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D229" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+    </row>
+    <row r="230" spans="1:12">
+      <c r="A230" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B230" s="2">
+        <v>6384</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D230" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
+      <c r="A231" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B231" s="2">
+        <v>8952</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D231" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G231" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J118" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L118" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
+      <c r="A232" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B232" s="2">
+        <v>425</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D232" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
+      <c r="A233" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B233" s="2">
+        <v>425</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D233" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
+      <c r="A234" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B234" s="2">
+        <v>264</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D234" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
+      <c r="A235" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B235" s="2">
+        <v>3661</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D235" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
+      <c r="A236" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B236" s="2">
+        <v>261</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D236" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
+      <c r="A237" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B237" s="2">
+        <v>615</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D237" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
+      <c r="A238" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B238" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D238" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K238" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L238" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
+      <c r="A239" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B239" s="2"/>
+      <c r="C239" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D239" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+    </row>
+    <row r="240" spans="1:12">
+      <c r="A240" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B240" s="2"/>
+      <c r="C240" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D240" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K240" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L240" s="1"/>
+    </row>
+    <row r="241" spans="1:12">
+      <c r="A241" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B241" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D241" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K241" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
+      <c r="A242" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B242" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D242" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K242" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
+      <c r="A243" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B243" s="2"/>
+      <c r="C243" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D243" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K243" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L243" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/seminare_bez_seminaricich.xlsx
+++ b/results/seminare_bez_seminaricich.xlsx
@@ -796,12 +796,12 @@
     <t>Nezbeda Ivo, prof. RNDr. DrSc.</t>
   </si>
   <si>
+    <t>Paříková Anna, Mgr.</t>
+  </si>
+  <si>
     <t>Čermák Jan, doc. Ing. CSc.</t>
   </si>
   <si>
-    <t>Paříková Anna, Mgr.</t>
-  </si>
-  <si>
     <t>Kadlečková Ivana, Ing.</t>
   </si>
   <si>
@@ -826,12 +826,12 @@
     <t>Raška Pavel, doc. Mgr. Ph.D.</t>
   </si>
   <si>
+    <t>Anděl Jiří, doc. RNDr. CSc.</t>
+  </si>
+  <si>
     <t>Kučerová Silvie Rita, RNDr. Ph.D.</t>
   </si>
   <si>
-    <t>Anděl Jiří, doc. RNDr. CSc.</t>
-  </si>
-  <si>
     <t>Sýkorová Květuše, Mgr.</t>
   </si>
   <si>
@@ -850,21 +850,21 @@
     <t>Beránek Pavel, Ing. Mgr.</t>
   </si>
   <si>
+    <t>Krátká Magdalena, PhDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Pelikánová Monika, Mgr.</t>
+  </si>
+  <si>
     <t>Hejnová Eva, RNDr. Ph.D.</t>
   </si>
   <si>
-    <t>Pelikánová Monika, Mgr.</t>
+    <t>Trahorsch Petr, Mgr. Ph.D.</t>
   </si>
   <si>
     <t>Svobodová Silvie, PhDr. Ing. Ph.D.</t>
   </si>
   <si>
-    <t>Krátká Magdalena, PhDr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Trahorsch Petr, Mgr. Ph.D.</t>
-  </si>
-  <si>
     <t>Moosaei Hossein, Dr. Ph.D.</t>
   </si>
   <si>
@@ -892,13 +892,13 @@
     <t>Králík Jiří, RNDr. Ph.D.</t>
   </si>
   <si>
+    <t>Gryndler Milan, prof. doc. RNDr. CSc.</t>
+  </si>
+  <si>
     <t>Varady Michal, doc. RNDr. Ph.D.</t>
   </si>
   <si>
     <t>Eisenmann Petr, doc. PaedDr. CSc.</t>
-  </si>
-  <si>
-    <t>Gryndler Milan, prof. doc. RNDr. CSc.</t>
   </si>
   <si>
     <t>Přibyl Jiří, PhDr. Ph.D.</t>
@@ -1458,7 +1458,7 @@
         <v>141</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1482,7 +1482,7 @@
         <v>141</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1579,7 +1579,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="2">
-        <v>1064</v>
+        <v>8946</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>137</v>
@@ -1607,7 +1607,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>8946</v>
+        <v>1064</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>137</v>
@@ -1655,7 +1655,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1711,7 +1711,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1839,7 +1839,7 @@
         <v>239</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2263,7 +2263,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>3528</v>
+        <v>312</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>137</v>
@@ -2291,7 +2291,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>312</v>
+        <v>3528</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>137</v>
@@ -2319,7 +2319,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>1434</v>
+        <v>3528</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>137</v>
@@ -2339,7 +2339,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2347,7 +2347,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="2">
-        <v>3528</v>
+        <v>312</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>137</v>
@@ -2375,7 +2375,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>312</v>
+        <v>1434</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>137</v>
@@ -2395,7 +2395,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2449,10 +2449,10 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>168</v>
@@ -2521,10 +2521,10 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>168</v>
@@ -2717,10 +2717,10 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>168</v>
@@ -2749,10 +2749,10 @@
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>168</v>
@@ -2863,7 +2863,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="2">
-        <v>2220</v>
+        <v>251</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>137</v>
@@ -2883,7 +2883,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2891,7 +2891,7 @@
         <v>47</v>
       </c>
       <c r="B53" s="2">
-        <v>251</v>
+        <v>2220</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>137</v>
@@ -2901,17 +2901,17 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2929,10 +2929,10 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -2947,7 +2947,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="2">
-        <v>251</v>
+        <v>2220</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>137</v>
@@ -2967,7 +2967,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3003,7 +3003,7 @@
         <v>48</v>
       </c>
       <c r="B57" s="2">
-        <v>2220</v>
+        <v>251</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>137</v>
@@ -3023,7 +3023,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3263,7 +3263,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="2">
-        <v>301</v>
+        <v>425</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>137</v>
@@ -3319,7 +3319,7 @@
         <v>53</v>
       </c>
       <c r="B67" s="2">
-        <v>8952</v>
+        <v>301</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>137</v>
@@ -3347,7 +3347,7 @@
         <v>53</v>
       </c>
       <c r="B68" s="2">
-        <v>425</v>
+        <v>6384</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>137</v>
@@ -3375,7 +3375,7 @@
         <v>53</v>
       </c>
       <c r="B69" s="2">
-        <v>2776</v>
+        <v>8952</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>137</v>
@@ -3395,7 +3395,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3403,7 +3403,7 @@
         <v>53</v>
       </c>
       <c r="B70" s="2">
-        <v>6384</v>
+        <v>2776</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>137</v>
@@ -3423,7 +3423,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3431,7 +3431,7 @@
         <v>54</v>
       </c>
       <c r="B71" s="2">
-        <v>8744</v>
+        <v>2776</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>137</v>
@@ -3441,17 +3441,17 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3459,7 +3459,7 @@
         <v>54</v>
       </c>
       <c r="B72" s="2">
-        <v>8952</v>
+        <v>8744</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>137</v>
@@ -3469,17 +3469,17 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3500,7 +3500,7 @@
         <v>143</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -3515,7 +3515,7 @@
         <v>54</v>
       </c>
       <c r="B74" s="2">
-        <v>2776</v>
+        <v>8952</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>137</v>
@@ -3525,17 +3525,17 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3543,7 +3543,7 @@
         <v>54</v>
       </c>
       <c r="B75" s="2">
-        <v>425</v>
+        <v>301</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>137</v>
@@ -3556,14 +3556,14 @@
         <v>144</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3571,7 +3571,7 @@
         <v>54</v>
       </c>
       <c r="B76" s="2">
-        <v>3704</v>
+        <v>425</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>137</v>
@@ -3584,14 +3584,14 @@
         <v>144</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3599,7 +3599,7 @@
         <v>54</v>
       </c>
       <c r="B77" s="2">
-        <v>301</v>
+        <v>3704</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>137</v>
@@ -3619,7 +3619,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3693,10 +3693,10 @@
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -3721,10 +3721,10 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -3803,7 +3803,7 @@
         <v>59</v>
       </c>
       <c r="B84" s="2">
-        <v>6973</v>
+        <v>2220</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>137</v>
@@ -3823,7 +3823,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3831,7 +3831,7 @@
         <v>59</v>
       </c>
       <c r="B85" s="2">
-        <v>2220</v>
+        <v>6973</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>137</v>
@@ -3851,7 +3851,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4011,7 +4011,7 @@
         <v>64</v>
       </c>
       <c r="B91" s="2">
-        <v>650</v>
+        <v>9114</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>137</v>
@@ -4021,10 +4021,10 @@
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>168</v>
@@ -4035,7 +4035,7 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4043,7 +4043,7 @@
         <v>64</v>
       </c>
       <c r="B92" s="2">
-        <v>9114</v>
+        <v>650</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>137</v>
@@ -4053,10 +4053,10 @@
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>168</v>
@@ -4067,7 +4067,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4203,7 +4203,7 @@
         <v>69</v>
       </c>
       <c r="B97" s="2">
-        <v>2220</v>
+        <v>650</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>137</v>
@@ -4213,10 +4213,10 @@
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>168</v>
@@ -4227,7 +4227,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4235,7 +4235,7 @@
         <v>69</v>
       </c>
       <c r="B98" s="2">
-        <v>650</v>
+        <v>2220</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>137</v>
@@ -4245,10 +4245,10 @@
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>168</v>
@@ -4259,7 +4259,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4267,7 +4267,7 @@
         <v>70</v>
       </c>
       <c r="B99" s="2">
-        <v>425</v>
+        <v>2776</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>137</v>
@@ -4287,7 +4287,7 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4315,7 +4315,7 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4323,7 +4323,7 @@
         <v>70</v>
       </c>
       <c r="B101" s="2">
-        <v>8744</v>
+        <v>301</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>137</v>
@@ -4343,7 +4343,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4351,7 +4351,7 @@
         <v>70</v>
       </c>
       <c r="B102" s="2">
-        <v>2776</v>
+        <v>425</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>137</v>
@@ -4371,7 +4371,7 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4379,7 +4379,7 @@
         <v>70</v>
       </c>
       <c r="B103" s="2">
-        <v>301</v>
+        <v>6384</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>137</v>
@@ -4399,7 +4399,7 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4407,7 +4407,7 @@
         <v>70</v>
       </c>
       <c r="B104" s="2">
-        <v>6384</v>
+        <v>8744</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>137</v>
@@ -4427,7 +4427,7 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4435,7 +4435,7 @@
         <v>71</v>
       </c>
       <c r="B105" s="2">
-        <v>2776</v>
+        <v>425</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>137</v>
@@ -4445,17 +4445,17 @@
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4463,7 +4463,7 @@
         <v>71</v>
       </c>
       <c r="B106" s="2">
-        <v>3704</v>
+        <v>425</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>137</v>
@@ -4473,17 +4473,17 @@
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -4511,7 +4511,7 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -4519,7 +4519,7 @@
         <v>71</v>
       </c>
       <c r="B108" s="2">
-        <v>425</v>
+        <v>3704</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>137</v>
@@ -4529,17 +4529,17 @@
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -4547,7 +4547,7 @@
         <v>71</v>
       </c>
       <c r="B109" s="2">
-        <v>425</v>
+        <v>2776</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>137</v>
@@ -4557,17 +4557,17 @@
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -4595,7 +4595,7 @@
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -4765,10 +4765,10 @@
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -4783,7 +4783,7 @@
         <v>76</v>
       </c>
       <c r="B117" s="2">
-        <v>303</v>
+        <v>2776</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>137</v>
@@ -4793,17 +4793,17 @@
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -4811,7 +4811,7 @@
         <v>76</v>
       </c>
       <c r="B118" s="2">
-        <v>2776</v>
+        <v>3704</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>137</v>
@@ -4824,14 +4824,14 @@
         <v>144</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -4839,7 +4839,7 @@
         <v>76</v>
       </c>
       <c r="B119" s="2">
-        <v>3704</v>
+        <v>303</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>137</v>
@@ -4849,17 +4849,17 @@
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -4867,7 +4867,7 @@
         <v>76</v>
       </c>
       <c r="B120" s="2">
-        <v>425</v>
+        <v>8952</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>137</v>
@@ -4887,7 +4887,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -4895,7 +4895,7 @@
         <v>76</v>
       </c>
       <c r="B121" s="2">
-        <v>8952</v>
+        <v>425</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>137</v>
@@ -4915,7 +4915,7 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -4923,7 +4923,7 @@
         <v>77</v>
       </c>
       <c r="B122" s="2">
-        <v>8952</v>
+        <v>425</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>137</v>
@@ -4933,17 +4933,17 @@
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -4979,7 +4979,7 @@
         <v>77</v>
       </c>
       <c r="B124" s="2">
-        <v>425</v>
+        <v>301</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>137</v>
@@ -4999,7 +4999,7 @@
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5007,7 +5007,7 @@
         <v>77</v>
       </c>
       <c r="B125" s="2">
-        <v>301</v>
+        <v>8952</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>137</v>
@@ -5017,17 +5017,17 @@
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5105,10 +5105,10 @@
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -5133,10 +5133,10 @@
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -5151,7 +5151,7 @@
         <v>81</v>
       </c>
       <c r="B130" s="2">
-        <v>3704</v>
+        <v>8952</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>137</v>
@@ -5161,24 +5161,26 @@
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B131" s="2"/>
+      <c r="B131" s="2">
+        <v>6384</v>
+      </c>
       <c r="C131" s="1" t="s">
         <v>137</v>
       </c>
@@ -5196,15 +5198,15 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
+      <c r="L131" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B132" s="2">
-        <v>8952</v>
-      </c>
+      <c r="B132" s="2"/>
       <c r="C132" s="1" t="s">
         <v>137</v>
       </c>
@@ -5222,16 +5224,14 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
-      <c r="L132" s="1" t="s">
-        <v>280</v>
-      </c>
+      <c r="L132" s="1"/>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B133" s="2">
-        <v>6384</v>
+        <v>3704</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>137</v>
@@ -5241,17 +5241,17 @@
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5279,7 +5279,7 @@
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5307,7 +5307,7 @@
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -5335,7 +5335,7 @@
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -5343,7 +5343,7 @@
         <v>83</v>
       </c>
       <c r="B137" s="2">
-        <v>615</v>
+        <v>3661</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>137</v>
@@ -5353,10 +5353,10 @@
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -5371,7 +5371,7 @@
         <v>83</v>
       </c>
       <c r="B138" s="2">
-        <v>261</v>
+        <v>615</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>137</v>
@@ -5381,10 +5381,10 @@
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -5399,7 +5399,7 @@
         <v>83</v>
       </c>
       <c r="B139" s="2">
-        <v>3661</v>
+        <v>261</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>137</v>
@@ -5409,10 +5409,10 @@
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -5437,10 +5437,10 @@
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>168</v>
@@ -5473,10 +5473,10 @@
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>168</v>
@@ -5545,10 +5545,10 @@
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>168</v>
@@ -5581,10 +5581,10 @@
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>168</v>
@@ -5627,7 +5627,7 @@
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -5677,10 +5677,10 @@
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>168</v>
@@ -5713,10 +5713,10 @@
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>168</v>
@@ -5799,7 +5799,7 @@
         <v>91</v>
       </c>
       <c r="B151" s="2">
-        <v>835</v>
+        <v>251</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>137</v>
@@ -5823,7 +5823,7 @@
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -5831,7 +5831,7 @@
         <v>91</v>
       </c>
       <c r="B152" s="2">
-        <v>251</v>
+        <v>835</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>137</v>
@@ -5855,7 +5855,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6021,10 +6021,10 @@
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>168</v>
@@ -6053,10 +6053,10 @@
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>168</v>
@@ -6263,7 +6263,7 @@
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -6327,7 +6327,7 @@
         <v>104</v>
       </c>
       <c r="B169" s="2">
-        <v>2317</v>
+        <v>3521</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>137</v>
@@ -6337,17 +6337,17 @@
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -6383,7 +6383,7 @@
         <v>104</v>
       </c>
       <c r="B171" s="2">
-        <v>3521</v>
+        <v>2317</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>137</v>
@@ -6393,17 +6393,17 @@
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -6821,7 +6821,7 @@
         <v>116</v>
       </c>
       <c r="B185" s="2">
-        <v>6384</v>
+        <v>425</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>137</v>
@@ -6831,17 +6831,17 @@
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -6849,7 +6849,7 @@
         <v>116</v>
       </c>
       <c r="B186" s="2">
-        <v>425</v>
+        <v>8952</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>137</v>
@@ -6859,17 +6859,17 @@
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -6877,7 +6877,7 @@
         <v>116</v>
       </c>
       <c r="B187" s="2">
-        <v>301</v>
+        <v>425</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>137</v>
@@ -6887,10 +6887,10 @@
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
@@ -6925,7 +6925,7 @@
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -6933,7 +6933,7 @@
         <v>116</v>
       </c>
       <c r="B189" s="2">
-        <v>8952</v>
+        <v>6384</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>137</v>
@@ -6953,7 +6953,7 @@
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -6961,7 +6961,7 @@
         <v>116</v>
       </c>
       <c r="B190" s="2">
-        <v>425</v>
+        <v>301</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>137</v>
@@ -6971,17 +6971,17 @@
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -7245,7 +7245,7 @@
         <v>122</v>
       </c>
       <c r="B200" s="2">
-        <v>251</v>
+        <v>2220</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>137</v>
@@ -7265,7 +7265,7 @@
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -7273,7 +7273,7 @@
         <v>122</v>
       </c>
       <c r="B201" s="2">
-        <v>2776</v>
+        <v>5958</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>137</v>
@@ -7293,7 +7293,7 @@
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -7301,7 +7301,7 @@
         <v>122</v>
       </c>
       <c r="B202" s="2">
-        <v>5958</v>
+        <v>6973</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>137</v>
@@ -7321,16 +7321,14 @@
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="203" spans="1:12">
       <c r="A203" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B203" s="2">
-        <v>2220</v>
-      </c>
+      <c r="B203" s="2"/>
       <c r="C203" s="1" t="s">
         <v>137</v>
       </c>
@@ -7348,16 +7346,14 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
-      <c r="L203" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="L203" s="1"/>
     </row>
     <row r="204" spans="1:12">
       <c r="A204" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B204" s="2">
-        <v>6973</v>
+        <v>251</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>137</v>
@@ -7377,7 +7373,7 @@
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
       <c r="L204" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -7385,7 +7381,7 @@
         <v>122</v>
       </c>
       <c r="B205" s="2">
-        <v>251</v>
+        <v>6259</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>137</v>
@@ -7405,14 +7401,16 @@
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="206" spans="1:12">
       <c r="A206" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B206" s="2"/>
+      <c r="B206" s="2">
+        <v>251</v>
+      </c>
       <c r="C206" s="1" t="s">
         <v>137</v>
       </c>
@@ -7421,16 +7419,18 @@
       </c>
       <c r="E206" s="1"/>
       <c r="F206" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
-      <c r="L206" s="1"/>
+      <c r="L206" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="1" t="s">
@@ -7450,7 +7450,7 @@
         <v>140</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
@@ -7465,7 +7465,7 @@
         <v>122</v>
       </c>
       <c r="B208" s="2">
-        <v>6259</v>
+        <v>251</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>137</v>
@@ -7485,7 +7485,7 @@
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -7493,7 +7493,7 @@
         <v>122</v>
       </c>
       <c r="B209" s="2">
-        <v>251</v>
+        <v>2776</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>137</v>
@@ -7503,17 +7503,17 @@
       </c>
       <c r="E209" s="1"/>
       <c r="F209" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -7601,7 +7601,7 @@
         <v>125</v>
       </c>
       <c r="B213" s="2">
-        <v>6384</v>
+        <v>8952</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>137</v>
@@ -7611,10 +7611,10 @@
       </c>
       <c r="E213" s="1"/>
       <c r="F213" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
@@ -7629,7 +7629,7 @@
         <v>125</v>
       </c>
       <c r="B214" s="2">
-        <v>2776</v>
+        <v>8744</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>137</v>
@@ -7639,17 +7639,17 @@
       </c>
       <c r="E214" s="1"/>
       <c r="F214" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -7657,7 +7657,7 @@
         <v>125</v>
       </c>
       <c r="B215" s="2">
-        <v>8744</v>
+        <v>2776</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>137</v>
@@ -7667,17 +7667,17 @@
       </c>
       <c r="E215" s="1"/>
       <c r="F215" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -7685,7 +7685,7 @@
         <v>125</v>
       </c>
       <c r="B216" s="2">
-        <v>425</v>
+        <v>6384</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>137</v>
@@ -7695,10 +7695,10 @@
       </c>
       <c r="E216" s="1"/>
       <c r="F216" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
@@ -7713,7 +7713,7 @@
         <v>125</v>
       </c>
       <c r="B217" s="2">
-        <v>301</v>
+        <v>425</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>137</v>
@@ -7723,10 +7723,10 @@
       </c>
       <c r="E217" s="1"/>
       <c r="F217" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
@@ -7741,7 +7741,7 @@
         <v>125</v>
       </c>
       <c r="B218" s="2">
-        <v>8952</v>
+        <v>301</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>137</v>
@@ -7751,10 +7751,10 @@
       </c>
       <c r="E218" s="1"/>
       <c r="F218" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
@@ -7769,7 +7769,7 @@
         <v>126</v>
       </c>
       <c r="B219" s="2">
-        <v>8952</v>
+        <v>303</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>137</v>
@@ -7779,17 +7779,17 @@
       </c>
       <c r="E219" s="1"/>
       <c r="F219" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -7817,7 +7817,7 @@
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
       <c r="L220" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -7853,7 +7853,7 @@
         <v>126</v>
       </c>
       <c r="B222" s="2">
-        <v>303</v>
+        <v>8952</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>137</v>
@@ -7863,17 +7863,17 @@
       </c>
       <c r="E222" s="1"/>
       <c r="F222" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -7997,7 +7997,7 @@
         <v>130</v>
       </c>
       <c r="B227" s="2">
-        <v>8744</v>
+        <v>425</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>137</v>
@@ -8007,17 +8007,17 @@
       </c>
       <c r="E227" s="1"/>
       <c r="F227" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
       <c r="L227" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -8025,7 +8025,7 @@
         <v>130</v>
       </c>
       <c r="B228" s="2">
-        <v>2776</v>
+        <v>425</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>137</v>
@@ -8035,24 +8035,26 @@
       </c>
       <c r="E228" s="1"/>
       <c r="F228" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="229" spans="1:12">
       <c r="A229" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B229" s="2"/>
+      <c r="B229" s="2">
+        <v>8952</v>
+      </c>
       <c r="C229" s="1" t="s">
         <v>137</v>
       </c>
@@ -8061,23 +8063,25 @@
       </c>
       <c r="E229" s="1"/>
       <c r="F229" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
-      <c r="L229" s="1"/>
+      <c r="L229" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="230" spans="1:12">
       <c r="A230" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B230" s="2">
-        <v>6384</v>
+        <v>8744</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>137</v>
@@ -8087,17 +8091,17 @@
       </c>
       <c r="E230" s="1"/>
       <c r="F230" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -8105,7 +8109,7 @@
         <v>130</v>
       </c>
       <c r="B231" s="2">
-        <v>8952</v>
+        <v>6384</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>137</v>
@@ -8115,17 +8119,17 @@
       </c>
       <c r="E231" s="1"/>
       <c r="F231" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
       <c r="L231" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -8133,7 +8137,7 @@
         <v>130</v>
       </c>
       <c r="B232" s="2">
-        <v>425</v>
+        <v>2776</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>137</v>
@@ -8143,26 +8147,24 @@
       </c>
       <c r="E232" s="1"/>
       <c r="F232" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
       <c r="L232" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="233" spans="1:12">
       <c r="A233" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B233" s="2">
-        <v>425</v>
-      </c>
+      <c r="B233" s="2"/>
       <c r="C233" s="1" t="s">
         <v>137</v>
       </c>
@@ -8171,25 +8173,23 @@
       </c>
       <c r="E233" s="1"/>
       <c r="F233" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
-      <c r="L233" s="1" t="s">
-        <v>281</v>
-      </c>
+      <c r="L233" s="1"/>
     </row>
     <row r="234" spans="1:12">
       <c r="A234" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B234" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>137</v>
@@ -8209,7 +8209,7 @@
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
       <c r="L234" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -8217,7 +8217,7 @@
         <v>131</v>
       </c>
       <c r="B235" s="2">
-        <v>3661</v>
+        <v>264</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>137</v>
@@ -8227,17 +8227,17 @@
       </c>
       <c r="E235" s="1"/>
       <c r="F235" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -8245,7 +8245,7 @@
         <v>131</v>
       </c>
       <c r="B236" s="2">
-        <v>261</v>
+        <v>3661</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>137</v>
@@ -8255,17 +8255,17 @@
       </c>
       <c r="E236" s="1"/>
       <c r="F236" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
       <c r="L236" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -8293,7 +8293,7 @@
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
       <c r="L237" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -8403,10 +8403,10 @@
       </c>
       <c r="E241" s="1"/>
       <c r="F241" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>168</v>
@@ -8439,10 +8439,10 @@
       </c>
       <c r="E242" s="1"/>
       <c r="F242" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>168</v>

--- a/results/seminare_bez_seminaricich.xlsx
+++ b/results/seminare_bez_seminaricich.xlsx
@@ -214,18 +214,18 @@
     <t>Se</t>
   </si>
   <si>
+    <t>20.2.2024</t>
+  </si>
+  <si>
     <t>27.2.2024</t>
   </si>
   <si>
-    <t>20.2.2024</t>
+    <t>6.4.2024</t>
   </si>
   <si>
     <t>20.4.2024</t>
   </si>
   <si>
-    <t>6.4.2024</t>
-  </si>
-  <si>
     <t>10.5.2024</t>
   </si>
   <si>
@@ -241,12 +241,12 @@
     <t>21.2.2024</t>
   </si>
   <si>
+    <t>3.10.2023</t>
+  </si>
+  <si>
     <t>2.10.2023</t>
   </si>
   <si>
-    <t>3.10.2023</t>
-  </si>
-  <si>
     <t>2.12.2023</t>
   </si>
   <si>
@@ -295,18 +295,18 @@
     <t>4.4.2024</t>
   </si>
   <si>
+    <t>18.4.2024</t>
+  </si>
+  <si>
+    <t>28.3.2024</t>
+  </si>
+  <si>
+    <t>29.2.2024</t>
+  </si>
+  <si>
     <t>7.3.2024</t>
   </si>
   <si>
-    <t>28.3.2024</t>
-  </si>
-  <si>
-    <t>29.2.2024</t>
-  </si>
-  <si>
-    <t>18.4.2024</t>
-  </si>
-  <si>
     <t>25.4.2024</t>
   </si>
   <si>
@@ -325,12 +325,12 @@
     <t>22.2.2024</t>
   </si>
   <si>
+    <t>14.5.2024</t>
+  </si>
+  <si>
     <t>7.5.2024</t>
   </si>
   <si>
-    <t>14.5.2024</t>
-  </si>
-  <si>
     <t>4.1.2024</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>24.4.2024</t>
   </si>
   <si>
+    <t>2.1.2024</t>
+  </si>
+  <si>
     <t>18.12.2023</t>
   </si>
   <si>
-    <t>2.1.2024</t>
-  </si>
-  <si>
     <t>15.5.2024</t>
   </si>
   <si>
@@ -382,12 +382,12 @@
     <t>19:00</t>
   </si>
   <si>
+    <t>12:00</t>
+  </si>
+  <si>
     <t>14:00</t>
   </si>
   <si>
-    <t>12:00</t>
-  </si>
-  <si>
     <t>08:00</t>
   </si>
   <si>
@@ -397,12 +397,12 @@
     <t>18:00</t>
   </si>
   <si>
+    <t>15:50</t>
+  </si>
+  <si>
     <t>16:50</t>
   </si>
   <si>
-    <t>15:50</t>
-  </si>
-  <si>
     <t>11:50</t>
   </si>
   <si>
@@ -634,10 +634,10 @@
     <t>Beránek Pavel, Ing. Mgr.</t>
   </si>
   <si>
+    <t>Moosaei Hossein, Dr. Ph.D.</t>
+  </si>
+  <si>
     <t>Kubera Petr, RNDr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Moosaei Hossein, Dr. Ph.D.</t>
   </si>
   <si>
     <t>Kuba Pavel, Ing. Ph.D.</t>
@@ -1183,10 +1183,10 @@
         <v>2023</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>116</v>
@@ -1236,7 +1236,7 @@
         <v>117</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -1280,7 +1280,7 @@
         <v>117</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>15</v>
@@ -1500,7 +1500,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>14</v>
@@ -1588,7 +1588,7 @@
         <v>122</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>14</v>
@@ -1623,16 +1623,16 @@
         <v>2023</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>14</v>
@@ -1667,16 +1667,16 @@
         <v>2023</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>14</v>
@@ -1702,7 +1702,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>835</v>
+        <v>449</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>65</v>
@@ -1711,16 +1711,16 @@
         <v>2023</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>14</v>
@@ -1735,7 +1735,7 @@
         <v>189</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1746,7 +1746,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="2">
-        <v>449</v>
+        <v>835</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>65</v>
@@ -1755,16 +1755,16 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>14</v>
@@ -1779,7 +1779,7 @@
         <v>189</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1888,7 +1888,7 @@
         <v>120</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>14</v>
@@ -2043,16 +2043,16 @@
         <v>2023</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>14</v>
@@ -2087,16 +2087,16 @@
         <v>2023</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>14</v>
@@ -2137,7 +2137,7 @@
         <v>79</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>137</v>
@@ -2175,16 +2175,16 @@
         <v>2023</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>14</v>
@@ -2219,16 +2219,16 @@
         <v>2023</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>14</v>
@@ -2378,7 +2378,7 @@
         <v>41</v>
       </c>
       <c r="C32" s="2">
-        <v>650</v>
+        <v>9114</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>65</v>
@@ -2387,16 +2387,16 @@
         <v>2023</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>14</v>
@@ -2418,7 +2418,7 @@
         <v>41</v>
       </c>
       <c r="C33" s="2">
-        <v>9114</v>
+        <v>650</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>65</v>
@@ -2427,16 +2427,16 @@
         <v>2023</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>14</v>
@@ -2473,10 +2473,10 @@
         <v>83</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>14</v>
@@ -2593,7 +2593,7 @@
         <v>84</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>137</v>
@@ -2799,16 +2799,16 @@
         <v>2023</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>14</v>
@@ -2843,16 +2843,16 @@
         <v>2023</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>14</v>
@@ -2893,10 +2893,10 @@
         <v>110</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>14</v>
@@ -2937,10 +2937,10 @@
         <v>110</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>14</v>
@@ -3021,10 +3021,10 @@
         <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>14</v>
@@ -3061,10 +3061,10 @@
         <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>14</v>
@@ -3359,10 +3359,10 @@
         <v>2023</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>116</v>
@@ -3450,13 +3450,13 @@
         <v>99</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>115</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>14</v>
@@ -3579,7 +3579,7 @@
         <v>112</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>130</v>
@@ -3623,7 +3623,7 @@
         <v>112</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>130</v>
@@ -3667,7 +3667,7 @@
         <v>113</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>135</v>
@@ -3711,7 +3711,7 @@
         <v>113</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>135</v>
@@ -3749,10 +3749,10 @@
         <v>2023</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>118</v>
@@ -3877,16 +3877,16 @@
         <v>2023</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>14</v>
@@ -3921,16 +3921,16 @@
         <v>2023</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>14</v>

--- a/results/seminare_bez_seminaricich.xlsx
+++ b/results/seminare_bez_seminaricich.xlsx
@@ -217,30 +217,30 @@
     <t>Se</t>
   </si>
   <si>
+    <t>17.4.2024</t>
+  </si>
+  <si>
     <t>24.4.2024</t>
   </si>
   <si>
     <t>15.5.2024</t>
   </si>
   <si>
-    <t>17.4.2024</t>
+    <t>14.5.2024</t>
+  </si>
+  <si>
+    <t>7.5.2024</t>
+  </si>
+  <si>
+    <t>30.4.2024</t>
+  </si>
+  <si>
+    <t>16.4.2024</t>
   </si>
   <si>
     <t>23.4.2024</t>
   </si>
   <si>
-    <t>30.4.2024</t>
-  </si>
-  <si>
-    <t>7.5.2024</t>
-  </si>
-  <si>
-    <t>16.4.2024</t>
-  </si>
-  <si>
-    <t>14.5.2024</t>
-  </si>
-  <si>
     <t>10.5.2024</t>
   </si>
   <si>
@@ -259,10 +259,22 @@
     <t>21.4.2024</t>
   </si>
   <si>
+    <t>13.5.2024</t>
+  </si>
+  <si>
+    <t>29.4.2024</t>
+  </si>
+  <si>
+    <t>6.5.2024</t>
+  </si>
+  <si>
+    <t>17.5.2024</t>
+  </si>
+  <si>
     <t>12.4.2024</t>
   </si>
   <si>
-    <t>17.5.2024</t>
+    <t>22.4.2024</t>
   </si>
   <si>
     <t>19.4.2024</t>
@@ -271,39 +283,27 @@
     <t>15.4.2024</t>
   </si>
   <si>
-    <t>6.5.2024</t>
-  </si>
-  <si>
-    <t>13.5.2024</t>
-  </si>
-  <si>
     <t>26.4.2024</t>
   </si>
   <si>
     <t>3.5.2024</t>
   </si>
   <si>
-    <t>22.4.2024</t>
-  </si>
-  <si>
-    <t>29.4.2024</t>
+    <t>18.4.2024</t>
+  </si>
+  <si>
+    <t>2.5.2024</t>
+  </si>
+  <si>
+    <t>9.5.2024</t>
   </si>
   <si>
     <t>16.5.2024</t>
   </si>
   <si>
-    <t>18.4.2024</t>
-  </si>
-  <si>
     <t>11.4.2024</t>
   </si>
   <si>
-    <t>9.5.2024</t>
-  </si>
-  <si>
-    <t>2.5.2024</t>
-  </si>
-  <si>
     <t>25.4.2024</t>
   </si>
   <si>
@@ -337,21 +337,21 @@
     <t>11:00</t>
   </si>
   <si>
+    <t>08:00</t>
+  </si>
+  <si>
     <t>10:00</t>
   </si>
   <si>
-    <t>08:00</t>
-  </si>
-  <si>
     <t>13:50</t>
   </si>
   <si>
+    <t>15:50</t>
+  </si>
+  <si>
     <t>16:50</t>
   </si>
   <si>
-    <t>15:50</t>
-  </si>
-  <si>
     <t>19:50</t>
   </si>
   <si>
@@ -364,16 +364,16 @@
     <t>12:50</t>
   </si>
   <si>
+    <t>18:50</t>
+  </si>
+  <si>
     <t>14:50</t>
   </si>
   <si>
-    <t>18:50</t>
+    <t>09:50</t>
   </si>
   <si>
     <t>11:50</t>
-  </si>
-  <si>
-    <t>09:50</t>
   </si>
   <si>
     <t>KI</t>
@@ -1177,7 +1177,7 @@
         <v>98</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1231,7 +1231,7 @@
         <v>98</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1255,7 +1255,7 @@
         <v>2023</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>99</v>
@@ -1293,7 +1293,7 @@
         <v>2023</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>99</v>
@@ -1499,7 +1499,7 @@
         <v>102</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>120</v>
@@ -1586,7 +1586,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>2220</v>
+        <v>251</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>66</v>
@@ -1606,7 +1606,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1614,7 +1614,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>251</v>
+        <v>2220</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>66</v>
@@ -1634,7 +1634,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2049,7 +2049,7 @@
         <v>98</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>120</v>
@@ -2305,7 +2305,7 @@
         <v>104</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2433,10 +2433,10 @@
         <v>2023</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>116</v>
@@ -2471,13 +2471,13 @@
         <v>2023</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>105</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>120</v>
@@ -2509,13 +2509,13 @@
         <v>2023</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>120</v>
@@ -2547,13 +2547,13 @@
         <v>2023</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>105</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>120</v>
@@ -2591,7 +2591,7 @@
         <v>101</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>120</v>
@@ -2623,10 +2623,10 @@
         <v>2023</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>117</v>
@@ -2907,7 +2907,7 @@
         <v>2023</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>107</v>
@@ -2937,13 +2937,13 @@
         <v>2023</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -2967,7 +2967,7 @@
         <v>2023</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>107</v>
@@ -2988,7 +2988,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="2">
-        <v>2317</v>
+        <v>3521</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>66</v>
@@ -2997,20 +2997,20 @@
         <v>2023</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3018,7 +3018,7 @@
         <v>53</v>
       </c>
       <c r="B66" s="2">
-        <v>2317</v>
+        <v>3521</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>66</v>
@@ -3027,20 +3027,20 @@
         <v>2023</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3057,13 +3057,13 @@
         <v>2023</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3087,7 +3087,7 @@
         <v>2023</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>103</v>
@@ -3117,7 +3117,7 @@
         <v>2023</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>108</v>
@@ -3138,7 +3138,7 @@
         <v>53</v>
       </c>
       <c r="B70" s="2">
-        <v>3521</v>
+        <v>2317</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>66</v>
@@ -3150,17 +3150,17 @@
         <v>85</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3168,7 +3168,7 @@
         <v>53</v>
       </c>
       <c r="B71" s="2">
-        <v>2317</v>
+        <v>3521</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>66</v>
@@ -3177,20 +3177,20 @@
         <v>2023</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3198,7 +3198,7 @@
         <v>53</v>
       </c>
       <c r="B72" s="2">
-        <v>3521</v>
+        <v>2317</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>66</v>
@@ -3207,20 +3207,20 @@
         <v>2023</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3240,10 +3240,10 @@
         <v>87</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -3258,7 +3258,7 @@
         <v>53</v>
       </c>
       <c r="B74" s="2">
-        <v>2317</v>
+        <v>3521</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>66</v>
@@ -3267,20 +3267,20 @@
         <v>2023</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3297,13 +3297,13 @@
         <v>2023</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -3318,7 +3318,7 @@
         <v>53</v>
       </c>
       <c r="B76" s="2">
-        <v>3521</v>
+        <v>2317</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>66</v>
@@ -3327,20 +3327,20 @@
         <v>2023</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3348,7 +3348,7 @@
         <v>53</v>
       </c>
       <c r="B77" s="2">
-        <v>3521</v>
+        <v>2317</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>66</v>
@@ -3357,20 +3357,20 @@
         <v>2023</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3495,7 +3495,7 @@
         <v>2023</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>102</v>
@@ -3533,7 +3533,7 @@
         <v>2023</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>102</v>
@@ -3571,7 +3571,7 @@
         <v>2023</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>102</v>
@@ -3609,13 +3609,13 @@
         <v>2023</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>120</v>
@@ -3641,13 +3641,13 @@
         <v>2023</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>120</v>
@@ -3673,13 +3673,13 @@
         <v>2023</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>120</v>
@@ -3711,7 +3711,7 @@
         <v>98</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>120</v>
@@ -3737,13 +3737,13 @@
         <v>2023</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>120</v>
@@ -3865,13 +3865,13 @@
         <v>2023</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>97</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>120</v>
@@ -3930,7 +3930,7 @@
         <v>61</v>
       </c>
       <c r="B94" s="2">
-        <v>251</v>
+        <v>6259</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>66</v>
@@ -3939,7 +3939,7 @@
         <v>2023</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>97</v>
@@ -3960,7 +3960,7 @@
         <v>166</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -3976,14 +3976,12 @@
       <c r="D95" s="2">
         <v>2023</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>120</v>
@@ -4006,7 +4004,7 @@
         <v>61</v>
       </c>
       <c r="B96" s="2">
-        <v>6259</v>
+        <v>251</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>66</v>
@@ -4015,7 +4013,7 @@
         <v>2023</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>97</v>
@@ -4036,7 +4034,7 @@
         <v>166</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4053,13 +4051,13 @@
         <v>2023</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>97</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>120</v>
@@ -4091,13 +4089,13 @@
         <v>2023</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>97</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>120</v>
@@ -4120,7 +4118,7 @@
         <v>61</v>
       </c>
       <c r="B99" s="2">
-        <v>6973</v>
+        <v>251</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>66</v>
@@ -4128,12 +4126,14 @@
       <c r="D99" s="2">
         <v>2023</v>
       </c>
-      <c r="E99" s="1"/>
+      <c r="E99" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F99" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>120</v>
@@ -4148,7 +4148,7 @@
         <v>166</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4156,7 +4156,7 @@
         <v>61</v>
       </c>
       <c r="B100" s="2">
-        <v>251</v>
+        <v>6259</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>66</v>
@@ -4165,7 +4165,7 @@
         <v>2023</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>97</v>
@@ -4186,7 +4186,7 @@
         <v>166</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4194,7 +4194,7 @@
         <v>61</v>
       </c>
       <c r="B101" s="2">
-        <v>6259</v>
+        <v>6973</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>66</v>
@@ -4202,14 +4202,12 @@
       <c r="D101" s="2">
         <v>2023</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>120</v>
@@ -4224,7 +4222,7 @@
         <v>166</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4240,12 +4238,14 @@
       <c r="D102" s="2">
         <v>2023</v>
       </c>
-      <c r="E102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="F102" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>120</v>
@@ -4277,7 +4277,7 @@
         <v>2023</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>97</v>
@@ -4306,7 +4306,7 @@
         <v>61</v>
       </c>
       <c r="B104" s="2">
-        <v>251</v>
+        <v>2776</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>66</v>
@@ -4314,14 +4314,12 @@
       <c r="D104" s="2">
         <v>2023</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>120</v>
@@ -4336,7 +4334,7 @@
         <v>166</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4344,7 +4342,7 @@
         <v>61</v>
       </c>
       <c r="B105" s="2">
-        <v>2776</v>
+        <v>251</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>66</v>
@@ -4352,12 +4350,14 @@
       <c r="D105" s="2">
         <v>2023</v>
       </c>
-      <c r="E105" s="1"/>
+      <c r="E105" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F105" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>120</v>
@@ -4372,7 +4372,7 @@
         <v>166</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4395,7 +4395,7 @@
         <v>105</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -4419,13 +4419,13 @@
         <v>2023</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>105</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -4481,13 +4481,13 @@
         <v>2023</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>120</v>
@@ -4519,13 +4519,13 @@
         <v>2023</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>103</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>120</v>
@@ -4557,13 +4557,13 @@
         <v>2023</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>120</v>
@@ -4595,13 +4595,13 @@
         <v>2023</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>120</v>
@@ -4633,13 +4633,13 @@
         <v>2023</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>120</v>
@@ -4677,7 +4677,7 @@
         <v>103</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>120</v>
@@ -4715,7 +4715,7 @@
         <v>103</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>120</v>
@@ -4747,13 +4747,13 @@
         <v>2023</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>120</v>
@@ -4785,13 +4785,13 @@
         <v>2023</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>120</v>

--- a/results/seminare_bez_seminaricich.xlsx
+++ b/results/seminare_bez_seminaricich.xlsx
@@ -220,12 +220,12 @@
     <t>27.2.2024</t>
   </si>
   <si>
+    <t>20.4.2024</t>
+  </si>
+  <si>
     <t>6.4.2024</t>
   </si>
   <si>
-    <t>20.4.2024</t>
-  </si>
-  <si>
     <t>10.5.2024</t>
   </si>
   <si>
@@ -292,21 +292,21 @@
     <t>25.11.2023</t>
   </si>
   <si>
+    <t>29.2.2024</t>
+  </si>
+  <si>
+    <t>28.3.2024</t>
+  </si>
+  <si>
+    <t>18.4.2024</t>
+  </si>
+  <si>
+    <t>7.3.2024</t>
+  </si>
+  <si>
     <t>4.4.2024</t>
   </si>
   <si>
-    <t>18.4.2024</t>
-  </si>
-  <si>
-    <t>28.3.2024</t>
-  </si>
-  <si>
-    <t>29.2.2024</t>
-  </si>
-  <si>
-    <t>7.3.2024</t>
-  </si>
-  <si>
     <t>25.4.2024</t>
   </si>
   <si>
@@ -352,12 +352,12 @@
     <t>22.12.2023</t>
   </si>
   <si>
+    <t>17.5.2024</t>
+  </si>
+  <si>
     <t>26.4.2024</t>
   </si>
   <si>
-    <t>17.5.2024</t>
-  </si>
-  <si>
     <t>16.5.2024</t>
   </si>
   <si>
@@ -382,15 +382,15 @@
     <t>19:00</t>
   </si>
   <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
     <t>12:00</t>
   </si>
   <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
     <t>11:00</t>
   </si>
   <si>
@@ -619,10 +619,10 @@
     <t>Škvor Jiří, RNDr. Ph.D.</t>
   </si>
   <si>
+    <t>Barilla Jiří, doc. Ing. Mgr. CSc.</t>
+  </si>
+  <si>
     <t>Sýkorová Květuše, Mgr.</t>
-  </si>
-  <si>
-    <t>Barilla Jiří, doc. Ing. Mgr. CSc.</t>
   </si>
   <si>
     <t>Lustig František, doc. RNDr. CSc.</t>
@@ -1570,7 +1570,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="2">
-        <v>835</v>
+        <v>449</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>65</v>
@@ -1579,16 +1579,16 @@
         <v>2023</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>122</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>14</v>
@@ -1629,10 +1629,10 @@
         <v>108</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>14</v>
@@ -1647,7 +1647,7 @@
         <v>189</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1673,10 +1673,10 @@
         <v>108</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>14</v>
@@ -1691,7 +1691,7 @@
         <v>189</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1702,7 +1702,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>449</v>
+        <v>835</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>65</v>
@@ -1711,16 +1711,16 @@
         <v>2023</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>14</v>
@@ -1755,16 +1755,16 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>14</v>
@@ -1779,7 +1779,7 @@
         <v>189</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2043,16 +2043,16 @@
         <v>2023</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>14</v>
@@ -2087,16 +2087,16 @@
         <v>2023</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>14</v>
@@ -2175,16 +2175,16 @@
         <v>2023</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>14</v>
@@ -2199,7 +2199,7 @@
         <v>189</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2219,16 +2219,16 @@
         <v>2023</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>14</v>
@@ -2243,7 +2243,7 @@
         <v>189</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2433,7 +2433,7 @@
         <v>82</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>130</v>
@@ -2799,10 +2799,10 @@
         <v>2023</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>125</v>
@@ -2843,13 +2843,13 @@
         <v>2023</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>130</v>
@@ -2893,10 +2893,10 @@
         <v>110</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>14</v>
@@ -2937,10 +2937,10 @@
         <v>110</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>14</v>
@@ -3021,10 +3021,10 @@
         <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>14</v>
@@ -3061,10 +3061,10 @@
         <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>14</v>
@@ -3564,7 +3564,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="2">
-        <v>6259</v>
+        <v>251</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>65</v>
@@ -3573,16 +3573,16 @@
         <v>2023</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>112</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>14</v>
@@ -3597,7 +3597,7 @@
         <v>196</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3608,7 +3608,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="2">
-        <v>251</v>
+        <v>6259</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>65</v>
@@ -3620,10 +3620,10 @@
         <v>98</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>130</v>
@@ -3641,7 +3641,7 @@
         <v>196</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3661,16 +3661,16 @@
         <v>2023</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>113</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>14</v>
@@ -3708,10 +3708,10 @@
         <v>101</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>135</v>
@@ -3792,7 +3792,7 @@
         <v>101</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>117</v>
@@ -3877,16 +3877,16 @@
         <v>2023</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>14</v>
@@ -3921,16 +3921,16 @@
         <v>2023</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>14</v>
